--- a/data_storage/excel_db/UserMenstruation.xlsx
+++ b/data_storage/excel_db/UserMenstruation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\УЧЁБА\4 курс\7 сем\physiological_indicators_analisis_app\база\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\УЧЁБА\4 курс\7 сем\physiological_indicators_analisis_app\data_storage\excel_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -94,13 +94,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -383,14 +384,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H572"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
+      <selection activeCell="G572" sqref="G572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="8.88671875" style="1"/>
     <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.88671875" style="1"/>
@@ -403,19 +404,19 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -444,8 +445,8 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
-        <v>44973</v>
+      <c r="H2" s="4">
+        <v>44700</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -470,8 +471,8 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
-        <v>44974</v>
+      <c r="H3" s="4">
+        <v>44701</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -496,8 +497,8 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="2">
-        <v>44975</v>
+      <c r="H4" s="4">
+        <v>44702</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -522,8 +523,8 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
-        <v>44976</v>
+      <c r="H5" s="4">
+        <v>44703</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -548,8 +549,8 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
-        <v>44977</v>
+      <c r="H6" s="4">
+        <v>44704</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -574,8 +575,8 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
-        <v>44978</v>
+      <c r="H7" s="4">
+        <v>44705</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -600,8 +601,8 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="2">
-        <v>44979</v>
+      <c r="H8" s="4">
+        <v>44706</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -626,8 +627,8 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="2">
-        <v>44980</v>
+      <c r="H9" s="4">
+        <v>44707</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -652,8 +653,8 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="2">
-        <v>44981</v>
+      <c r="H10" s="4">
+        <v>44708</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -678,8 +679,8 @@
       <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="2">
-        <v>44982</v>
+      <c r="H11" s="4">
+        <v>44709</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -704,8 +705,8 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="2">
-        <v>44983</v>
+      <c r="H12" s="4">
+        <v>44710</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -730,8 +731,8 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="2">
-        <v>44984</v>
+      <c r="H13" s="4">
+        <v>44711</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -756,8 +757,8 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="2">
-        <v>44985</v>
+      <c r="H14" s="4">
+        <v>44712</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -782,8 +783,8 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="2">
-        <v>44986</v>
+      <c r="H15" s="4">
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -808,8 +809,8 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="2">
-        <v>44987</v>
+      <c r="H16" s="4">
+        <v>44714</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -834,8 +835,8 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="H17" s="2">
-        <v>44988</v>
+      <c r="H17" s="4">
+        <v>44715</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -860,8 +861,8 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="2">
-        <v>44989</v>
+      <c r="H18" s="4">
+        <v>44716</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -886,8 +887,8 @@
       <c r="G19" s="1">
         <v>0</v>
       </c>
-      <c r="H19" s="2">
-        <v>44990</v>
+      <c r="H19" s="4">
+        <v>44717</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -912,8 +913,8 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="2">
-        <v>44991</v>
+      <c r="H20" s="4">
+        <v>44718</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -938,8 +939,8 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="2">
-        <v>44992</v>
+      <c r="H21" s="4">
+        <v>44719</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -964,8 +965,8 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="2">
-        <v>44993</v>
+      <c r="H22" s="4">
+        <v>44720</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -990,8 +991,8 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="2">
-        <v>44994</v>
+      <c r="H23" s="4">
+        <v>44721</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1016,8 +1017,8 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="2">
-        <v>44995</v>
+      <c r="H24" s="4">
+        <v>44722</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1042,8 +1043,8 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="2">
-        <v>44996</v>
+      <c r="H25" s="4">
+        <v>44723</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1068,8 +1069,8 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-      <c r="H26" s="2">
-        <v>44997</v>
+      <c r="H26" s="4">
+        <v>44724</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1094,8 +1095,8 @@
       <c r="G27" s="1">
         <v>0</v>
       </c>
-      <c r="H27" s="2">
-        <v>44998</v>
+      <c r="H27" s="4">
+        <v>44725</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1120,8 +1121,8 @@
       <c r="G28" s="1">
         <v>0</v>
       </c>
-      <c r="H28" s="2">
-        <v>44999</v>
+      <c r="H28" s="4">
+        <v>44726</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1146,8 +1147,8 @@
       <c r="G29" s="1">
         <v>0</v>
       </c>
-      <c r="H29" s="2">
-        <v>45000</v>
+      <c r="H29" s="4">
+        <v>44727</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1172,8 +1173,8 @@
       <c r="G30" s="1">
         <v>0</v>
       </c>
-      <c r="H30" s="2">
-        <v>45001</v>
+      <c r="H30" s="4">
+        <v>44728</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1198,8 +1199,8 @@
       <c r="G31" s="1">
         <v>0</v>
       </c>
-      <c r="H31" s="2">
-        <v>45002</v>
+      <c r="H31" s="4">
+        <v>44729</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1224,8 +1225,8 @@
       <c r="G32" s="1">
         <v>0</v>
       </c>
-      <c r="H32" s="2">
-        <v>45003</v>
+      <c r="H32" s="4">
+        <v>44730</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1250,8 +1251,8 @@
       <c r="G33" s="1">
         <v>0</v>
       </c>
-      <c r="H33" s="2">
-        <v>45004</v>
+      <c r="H33" s="4">
+        <v>44731</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1276,8 +1277,8 @@
       <c r="G34" s="1">
         <v>0</v>
       </c>
-      <c r="H34" s="2">
-        <v>45005</v>
+      <c r="H34" s="4">
+        <v>44732</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1302,8 +1303,8 @@
       <c r="G35" s="1">
         <v>1</v>
       </c>
-      <c r="H35" s="2">
-        <v>45006</v>
+      <c r="H35" s="4">
+        <v>44733</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1328,8 +1329,8 @@
       <c r="G36" s="1">
         <v>1</v>
       </c>
-      <c r="H36" s="2">
-        <v>45007</v>
+      <c r="H36" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1354,8 +1355,8 @@
       <c r="G37" s="1">
         <v>1</v>
       </c>
-      <c r="H37" s="2">
-        <v>45008</v>
+      <c r="H37" s="4">
+        <v>44735</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1380,8 +1381,8 @@
       <c r="G38" s="1">
         <v>1</v>
       </c>
-      <c r="H38" s="2">
-        <v>45009</v>
+      <c r="H38" s="4">
+        <v>44736</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1406,8 +1407,8 @@
       <c r="G39" s="1">
         <v>1</v>
       </c>
-      <c r="H39" s="2">
-        <v>45010</v>
+      <c r="H39" s="4">
+        <v>44737</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1432,8 +1433,8 @@
       <c r="G40" s="1">
         <v>1</v>
       </c>
-      <c r="H40" s="2">
-        <v>45011</v>
+      <c r="H40" s="4">
+        <v>44738</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1458,8 +1459,8 @@
       <c r="G41" s="1">
         <v>0</v>
       </c>
-      <c r="H41" s="2">
-        <v>45012</v>
+      <c r="H41" s="4">
+        <v>44739</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1484,8 +1485,8 @@
       <c r="G42" s="1">
         <v>0</v>
       </c>
-      <c r="H42" s="2">
-        <v>45013</v>
+      <c r="H42" s="4">
+        <v>44740</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1510,8 +1511,8 @@
       <c r="G43" s="1">
         <v>0</v>
       </c>
-      <c r="H43" s="2">
-        <v>45014</v>
+      <c r="H43" s="4">
+        <v>44741</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1536,8 +1537,8 @@
       <c r="G44" s="1">
         <v>0</v>
       </c>
-      <c r="H44" s="2">
-        <v>45015</v>
+      <c r="H44" s="4">
+        <v>44742</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -1562,8 +1563,8 @@
       <c r="G45" s="1">
         <v>0</v>
       </c>
-      <c r="H45" s="2">
-        <v>45016</v>
+      <c r="H45" s="4">
+        <v>44743</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1588,8 +1589,8 @@
       <c r="G46" s="1">
         <v>0</v>
       </c>
-      <c r="H46" s="2">
-        <v>45017</v>
+      <c r="H46" s="4">
+        <v>44744</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -1614,8 +1615,8 @@
       <c r="G47" s="1">
         <v>0</v>
       </c>
-      <c r="H47" s="2">
-        <v>45018</v>
+      <c r="H47" s="4">
+        <v>44745</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -1640,8 +1641,8 @@
       <c r="G48" s="1">
         <v>0</v>
       </c>
-      <c r="H48" s="2">
-        <v>45019</v>
+      <c r="H48" s="4">
+        <v>44746</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -1666,8 +1667,8 @@
       <c r="G49" s="1">
         <v>0</v>
       </c>
-      <c r="H49" s="2">
-        <v>45020</v>
+      <c r="H49" s="4">
+        <v>44747</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1692,8 +1693,8 @@
       <c r="G50" s="1">
         <v>0</v>
       </c>
-      <c r="H50" s="2">
-        <v>45021</v>
+      <c r="H50" s="4">
+        <v>44748</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -1718,8 +1719,8 @@
       <c r="G51" s="1">
         <v>0</v>
       </c>
-      <c r="H51" s="2">
-        <v>45022</v>
+      <c r="H51" s="4">
+        <v>44749</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -1744,8 +1745,8 @@
       <c r="G52" s="1">
         <v>0</v>
       </c>
-      <c r="H52" s="2">
-        <v>45023</v>
+      <c r="H52" s="4">
+        <v>44750</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -1770,8 +1771,8 @@
       <c r="G53" s="1">
         <v>0</v>
       </c>
-      <c r="H53" s="2">
-        <v>45024</v>
+      <c r="H53" s="4">
+        <v>44751</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -1796,8 +1797,8 @@
       <c r="G54" s="1">
         <v>0</v>
       </c>
-      <c r="H54" s="2">
-        <v>45025</v>
+      <c r="H54" s="4">
+        <v>44752</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -1822,8 +1823,8 @@
       <c r="G55" s="1">
         <v>0</v>
       </c>
-      <c r="H55" s="2">
-        <v>45026</v>
+      <c r="H55" s="4">
+        <v>44753</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -1848,8 +1849,8 @@
       <c r="G56" s="1">
         <v>0</v>
       </c>
-      <c r="H56" s="2">
-        <v>45027</v>
+      <c r="H56" s="4">
+        <v>44754</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -1874,8 +1875,8 @@
       <c r="G57" s="1">
         <v>0</v>
       </c>
-      <c r="H57" s="2">
-        <v>45028</v>
+      <c r="H57" s="4">
+        <v>44755</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -1900,8 +1901,8 @@
       <c r="G58" s="1">
         <v>0</v>
       </c>
-      <c r="H58" s="2">
-        <v>45029</v>
+      <c r="H58" s="4">
+        <v>44756</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -1926,8 +1927,8 @@
       <c r="G59" s="1">
         <v>0</v>
       </c>
-      <c r="H59" s="2">
-        <v>45030</v>
+      <c r="H59" s="4">
+        <v>44757</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -1952,8 +1953,8 @@
       <c r="G60" s="1">
         <v>0</v>
       </c>
-      <c r="H60" s="2">
-        <v>45031</v>
+      <c r="H60" s="4">
+        <v>44758</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -1978,8 +1979,8 @@
       <c r="G61" s="1">
         <v>0</v>
       </c>
-      <c r="H61" s="2">
-        <v>45032</v>
+      <c r="H61" s="4">
+        <v>44759</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2004,8 +2005,8 @@
       <c r="G62" s="1">
         <v>0</v>
       </c>
-      <c r="H62" s="2">
-        <v>45033</v>
+      <c r="H62" s="4">
+        <v>44760</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2030,8 +2031,8 @@
       <c r="G63" s="1">
         <v>0</v>
       </c>
-      <c r="H63" s="2">
-        <v>45034</v>
+      <c r="H63" s="4">
+        <v>44761</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2056,8 +2057,8 @@
       <c r="G64" s="1">
         <v>0</v>
       </c>
-      <c r="H64" s="2">
-        <v>45035</v>
+      <c r="H64" s="4">
+        <v>44762</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2082,8 +2083,8 @@
       <c r="G65" s="1">
         <v>0</v>
       </c>
-      <c r="H65" s="2">
-        <v>45036</v>
+      <c r="H65" s="4">
+        <v>44763</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2108,8 +2109,8 @@
       <c r="G66" s="1">
         <v>0</v>
       </c>
-      <c r="H66" s="2">
-        <v>45037</v>
+      <c r="H66" s="4">
+        <v>44764</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2134,8 +2135,8 @@
       <c r="G67" s="1">
         <v>0</v>
       </c>
-      <c r="H67" s="2">
-        <v>45038</v>
+      <c r="H67" s="4">
+        <v>44765</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2160,8 +2161,8 @@
       <c r="G68" s="1">
         <v>0</v>
       </c>
-      <c r="H68" s="2">
-        <v>45039</v>
+      <c r="H68" s="4">
+        <v>44766</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2186,8 +2187,8 @@
       <c r="G69" s="1">
         <v>0</v>
       </c>
-      <c r="H69" s="2">
-        <v>45040</v>
+      <c r="H69" s="4">
+        <v>44767</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2212,8 +2213,8 @@
       <c r="G70" s="1">
         <v>0</v>
       </c>
-      <c r="H70" s="2">
-        <v>45041</v>
+      <c r="H70" s="4">
+        <v>44768</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2238,8 +2239,8 @@
       <c r="G71" s="1">
         <v>0</v>
       </c>
-      <c r="H71" s="2">
-        <v>45042</v>
+      <c r="H71" s="4">
+        <v>44769</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -2264,8 +2265,8 @@
       <c r="G72" s="1">
         <v>1</v>
       </c>
-      <c r="H72" s="2">
-        <v>45043</v>
+      <c r="H72" s="4">
+        <v>44770</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2290,8 +2291,8 @@
       <c r="G73" s="1">
         <v>1</v>
       </c>
-      <c r="H73" s="2">
-        <v>45044</v>
+      <c r="H73" s="4">
+        <v>44771</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2316,8 +2317,8 @@
       <c r="G74" s="1">
         <v>1</v>
       </c>
-      <c r="H74" s="2">
-        <v>45045</v>
+      <c r="H74" s="4">
+        <v>44772</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2342,8 +2343,8 @@
       <c r="G75" s="1">
         <v>1</v>
       </c>
-      <c r="H75" s="2">
-        <v>45046</v>
+      <c r="H75" s="4">
+        <v>44773</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2368,8 +2369,8 @@
       <c r="G76" s="1">
         <v>1</v>
       </c>
-      <c r="H76" s="2">
-        <v>45047</v>
+      <c r="H76" s="4">
+        <v>44774</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2394,8 +2395,8 @@
       <c r="G77" s="1">
         <v>1</v>
       </c>
-      <c r="H77" s="2">
-        <v>45048</v>
+      <c r="H77" s="4">
+        <v>44775</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2420,8 +2421,8 @@
       <c r="G78" s="1">
         <v>0</v>
       </c>
-      <c r="H78" s="2">
-        <v>45049</v>
+      <c r="H78" s="4">
+        <v>44776</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2446,8 +2447,8 @@
       <c r="G79" s="1">
         <v>0</v>
       </c>
-      <c r="H79" s="2">
-        <v>45050</v>
+      <c r="H79" s="4">
+        <v>44777</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -2472,8 +2473,8 @@
       <c r="G80" s="1">
         <v>0</v>
       </c>
-      <c r="H80" s="2">
-        <v>45051</v>
+      <c r="H80" s="4">
+        <v>44778</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2498,8 +2499,8 @@
       <c r="G81" s="1">
         <v>0</v>
       </c>
-      <c r="H81" s="2">
-        <v>45052</v>
+      <c r="H81" s="4">
+        <v>44779</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2524,8 +2525,8 @@
       <c r="G82" s="1">
         <v>0</v>
       </c>
-      <c r="H82" s="2">
-        <v>45053</v>
+      <c r="H82" s="4">
+        <v>44780</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -2550,8 +2551,8 @@
       <c r="G83" s="1">
         <v>0</v>
       </c>
-      <c r="H83" s="2">
-        <v>45054</v>
+      <c r="H83" s="4">
+        <v>44781</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -2576,8 +2577,8 @@
       <c r="G84" s="1">
         <v>0</v>
       </c>
-      <c r="H84" s="2">
-        <v>45055</v>
+      <c r="H84" s="4">
+        <v>44782</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -2602,8 +2603,8 @@
       <c r="G85" s="1">
         <v>0</v>
       </c>
-      <c r="H85" s="2">
-        <v>45056</v>
+      <c r="H85" s="4">
+        <v>44783</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -2628,8 +2629,8 @@
       <c r="G86" s="1">
         <v>0</v>
       </c>
-      <c r="H86" s="2">
-        <v>45057</v>
+      <c r="H86" s="4">
+        <v>44784</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -2654,8 +2655,8 @@
       <c r="G87" s="1">
         <v>0</v>
       </c>
-      <c r="H87" s="2">
-        <v>45058</v>
+      <c r="H87" s="4">
+        <v>44785</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -2680,8 +2681,8 @@
       <c r="G88" s="1">
         <v>0</v>
       </c>
-      <c r="H88" s="2">
-        <v>45059</v>
+      <c r="H88" s="4">
+        <v>44786</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -2706,8 +2707,8 @@
       <c r="G89" s="1">
         <v>0</v>
       </c>
-      <c r="H89" s="2">
-        <v>45060</v>
+      <c r="H89" s="4">
+        <v>44787</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -2732,8 +2733,8 @@
       <c r="G90" s="1">
         <v>0</v>
       </c>
-      <c r="H90" s="2">
-        <v>45061</v>
+      <c r="H90" s="4">
+        <v>44788</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -2758,8 +2759,8 @@
       <c r="G91" s="1">
         <v>0</v>
       </c>
-      <c r="H91" s="2">
-        <v>45062</v>
+      <c r="H91" s="4">
+        <v>44789</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -2784,8 +2785,8 @@
       <c r="G92" s="1">
         <v>0</v>
       </c>
-      <c r="H92" s="2">
-        <v>45063</v>
+      <c r="H92" s="4">
+        <v>44790</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -2810,8 +2811,8 @@
       <c r="G93" s="1">
         <v>0</v>
       </c>
-      <c r="H93" s="2">
-        <v>45064</v>
+      <c r="H93" s="4">
+        <v>44791</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -2836,8 +2837,8 @@
       <c r="G94" s="1">
         <v>0</v>
       </c>
-      <c r="H94" s="2">
-        <v>45065</v>
+      <c r="H94" s="4">
+        <v>44792</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -2862,8 +2863,8 @@
       <c r="G95" s="1">
         <v>0</v>
       </c>
-      <c r="H95" s="2">
-        <v>45066</v>
+      <c r="H95" s="4">
+        <v>44793</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -2888,8 +2889,8 @@
       <c r="G96" s="1">
         <v>0</v>
       </c>
-      <c r="H96" s="2">
-        <v>45067</v>
+      <c r="H96" s="4">
+        <v>44794</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -2914,8 +2915,8 @@
       <c r="G97" s="1">
         <v>0</v>
       </c>
-      <c r="H97" s="2">
-        <v>45068</v>
+      <c r="H97" s="4">
+        <v>44795</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -2940,8 +2941,8 @@
       <c r="G98" s="1">
         <v>0</v>
       </c>
-      <c r="H98" s="2">
-        <v>45069</v>
+      <c r="H98" s="4">
+        <v>44796</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -2966,8 +2967,8 @@
       <c r="G99" s="1">
         <v>0</v>
       </c>
-      <c r="H99" s="2">
-        <v>45070</v>
+      <c r="H99" s="4">
+        <v>44797</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -2992,8 +2993,8 @@
       <c r="G100" s="1">
         <v>0</v>
       </c>
-      <c r="H100" s="2">
-        <v>45071</v>
+      <c r="H100" s="4">
+        <v>44798</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3018,8 +3019,8 @@
       <c r="G101" s="1">
         <v>0</v>
       </c>
-      <c r="H101" s="2">
-        <v>45072</v>
+      <c r="H101" s="4">
+        <v>44799</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -3044,8 +3045,8 @@
       <c r="G102" s="1">
         <v>0</v>
       </c>
-      <c r="H102" s="2">
-        <v>45073</v>
+      <c r="H102" s="4">
+        <v>44800</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -3070,8 +3071,8 @@
       <c r="G103" s="1">
         <v>0</v>
       </c>
-      <c r="H103" s="2">
-        <v>45074</v>
+      <c r="H103" s="4">
+        <v>44801</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -3096,8 +3097,8 @@
       <c r="G104" s="1">
         <v>0</v>
       </c>
-      <c r="H104" s="2">
-        <v>45075</v>
+      <c r="H104" s="4">
+        <v>44802</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -3122,8 +3123,8 @@
       <c r="G105" s="1">
         <v>0</v>
       </c>
-      <c r="H105" s="2">
-        <v>45076</v>
+      <c r="H105" s="4">
+        <v>44803</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -3148,8 +3149,8 @@
       <c r="G106" s="1">
         <v>0</v>
       </c>
-      <c r="H106" s="2">
-        <v>45077</v>
+      <c r="H106" s="4">
+        <v>44804</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -3174,8 +3175,8 @@
       <c r="G107" s="1">
         <v>0</v>
       </c>
-      <c r="H107" s="2">
-        <v>45078</v>
+      <c r="H107" s="4">
+        <v>44805</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -3200,8 +3201,8 @@
       <c r="G108" s="1">
         <v>0</v>
       </c>
-      <c r="H108" s="2">
-        <v>45079</v>
+      <c r="H108" s="4">
+        <v>44806</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -3226,8 +3227,8 @@
       <c r="G109" s="1">
         <v>0</v>
       </c>
-      <c r="H109" s="2">
-        <v>45080</v>
+      <c r="H109" s="4">
+        <v>44807</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -3252,8 +3253,8 @@
       <c r="G110" s="1">
         <v>0</v>
       </c>
-      <c r="H110" s="2">
-        <v>45081</v>
+      <c r="H110" s="4">
+        <v>44808</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -3278,8 +3279,8 @@
       <c r="G111" s="1">
         <v>0</v>
       </c>
-      <c r="H111" s="2">
-        <v>45082</v>
+      <c r="H111" s="4">
+        <v>44809</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -3304,8 +3305,8 @@
       <c r="G112" s="1">
         <v>1</v>
       </c>
-      <c r="H112" s="2">
-        <v>45083</v>
+      <c r="H112" s="4">
+        <v>44810</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -3330,8 +3331,8 @@
       <c r="G113" s="1">
         <v>1</v>
       </c>
-      <c r="H113" s="2">
-        <v>45084</v>
+      <c r="H113" s="4">
+        <v>44811</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -3356,8 +3357,8 @@
       <c r="G114" s="1">
         <v>1</v>
       </c>
-      <c r="H114" s="2">
-        <v>45085</v>
+      <c r="H114" s="4">
+        <v>44812</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -3382,8 +3383,8 @@
       <c r="G115" s="1">
         <v>1</v>
       </c>
-      <c r="H115" s="2">
-        <v>45086</v>
+      <c r="H115" s="4">
+        <v>44813</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -3408,8 +3409,8 @@
       <c r="G116" s="1">
         <v>1</v>
       </c>
-      <c r="H116" s="2">
-        <v>45087</v>
+      <c r="H116" s="4">
+        <v>44814</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -3434,8 +3435,8 @@
       <c r="G117" s="1">
         <v>1</v>
       </c>
-      <c r="H117" s="2">
-        <v>45088</v>
+      <c r="H117" s="4">
+        <v>44815</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -3460,8 +3461,8 @@
       <c r="G118" s="1">
         <v>0</v>
       </c>
-      <c r="H118" s="2">
-        <v>45089</v>
+      <c r="H118" s="4">
+        <v>44816</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -3486,8 +3487,8 @@
       <c r="G119" s="1">
         <v>0</v>
       </c>
-      <c r="H119" s="2">
-        <v>45090</v>
+      <c r="H119" s="4">
+        <v>44817</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -3512,8 +3513,8 @@
       <c r="G120" s="1">
         <v>0</v>
       </c>
-      <c r="H120" s="2">
-        <v>45091</v>
+      <c r="H120" s="4">
+        <v>44818</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -3538,8 +3539,8 @@
       <c r="G121" s="1">
         <v>0</v>
       </c>
-      <c r="H121" s="2">
-        <v>45092</v>
+      <c r="H121" s="4">
+        <v>44819</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -3564,8 +3565,8 @@
       <c r="G122" s="1">
         <v>0</v>
       </c>
-      <c r="H122" s="2">
-        <v>45093</v>
+      <c r="H122" s="4">
+        <v>44820</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -3590,8 +3591,8 @@
       <c r="G123" s="1">
         <v>0</v>
       </c>
-      <c r="H123" s="2">
-        <v>45094</v>
+      <c r="H123" s="4">
+        <v>44821</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -3616,8 +3617,8 @@
       <c r="G124" s="1">
         <v>0</v>
       </c>
-      <c r="H124" s="2">
-        <v>45095</v>
+      <c r="H124" s="4">
+        <v>44822</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -3642,8 +3643,8 @@
       <c r="G125" s="1">
         <v>0</v>
       </c>
-      <c r="H125" s="2">
-        <v>45096</v>
+      <c r="H125" s="4">
+        <v>44823</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -3668,8 +3669,8 @@
       <c r="G126" s="1">
         <v>0</v>
       </c>
-      <c r="H126" s="2">
-        <v>45097</v>
+      <c r="H126" s="4">
+        <v>44824</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -3694,8 +3695,8 @@
       <c r="G127" s="1">
         <v>0</v>
       </c>
-      <c r="H127" s="2">
-        <v>45098</v>
+      <c r="H127" s="4">
+        <v>44825</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -3720,8 +3721,8 @@
       <c r="G128" s="1">
         <v>0</v>
       </c>
-      <c r="H128" s="2">
-        <v>45099</v>
+      <c r="H128" s="4">
+        <v>44826</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -3746,8 +3747,8 @@
       <c r="G129" s="1">
         <v>0</v>
       </c>
-      <c r="H129" s="2">
-        <v>45100</v>
+      <c r="H129" s="4">
+        <v>44827</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -3772,8 +3773,8 @@
       <c r="G130" s="1">
         <v>0</v>
       </c>
-      <c r="H130" s="2">
-        <v>45101</v>
+      <c r="H130" s="4">
+        <v>44828</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -3798,8 +3799,8 @@
       <c r="G131" s="1">
         <v>0</v>
       </c>
-      <c r="H131" s="2">
-        <v>45102</v>
+      <c r="H131" s="4">
+        <v>44829</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -3824,8 +3825,8 @@
       <c r="G132" s="1">
         <v>0</v>
       </c>
-      <c r="H132" s="2">
-        <v>45103</v>
+      <c r="H132" s="4">
+        <v>44830</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -3850,8 +3851,8 @@
       <c r="G133" s="1">
         <v>0</v>
       </c>
-      <c r="H133" s="2">
-        <v>45104</v>
+      <c r="H133" s="4">
+        <v>44831</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -3876,8 +3877,8 @@
       <c r="G134" s="1">
         <v>0</v>
       </c>
-      <c r="H134" s="2">
-        <v>45105</v>
+      <c r="H134" s="4">
+        <v>44832</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -3902,8 +3903,8 @@
       <c r="G135" s="1">
         <v>0</v>
       </c>
-      <c r="H135" s="2">
-        <v>45106</v>
+      <c r="H135" s="4">
+        <v>44833</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -3928,8 +3929,8 @@
       <c r="G136" s="1">
         <v>0</v>
       </c>
-      <c r="H136" s="2">
-        <v>45107</v>
+      <c r="H136" s="4">
+        <v>44834</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -3954,8 +3955,8 @@
       <c r="G137" s="1">
         <v>0</v>
       </c>
-      <c r="H137" s="2">
-        <v>45108</v>
+      <c r="H137" s="4">
+        <v>44835</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -3980,8 +3981,8 @@
       <c r="G138" s="1">
         <v>0</v>
       </c>
-      <c r="H138" s="2">
-        <v>45109</v>
+      <c r="H138" s="4">
+        <v>44836</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -4006,8 +4007,8 @@
       <c r="G139" s="1">
         <v>0</v>
       </c>
-      <c r="H139" s="2">
-        <v>45110</v>
+      <c r="H139" s="4">
+        <v>44837</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -4032,8 +4033,8 @@
       <c r="G140" s="1">
         <v>0</v>
       </c>
-      <c r="H140" s="2">
-        <v>45111</v>
+      <c r="H140" s="4">
+        <v>44838</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -4058,8 +4059,8 @@
       <c r="G141" s="1">
         <v>0</v>
       </c>
-      <c r="H141" s="2">
-        <v>45112</v>
+      <c r="H141" s="4">
+        <v>44839</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -4084,8 +4085,8 @@
       <c r="G142" s="1">
         <v>0</v>
       </c>
-      <c r="H142" s="2">
-        <v>45113</v>
+      <c r="H142" s="4">
+        <v>44840</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -4110,8 +4111,8 @@
       <c r="G143" s="1">
         <v>0</v>
       </c>
-      <c r="H143" s="2">
-        <v>45114</v>
+      <c r="H143" s="4">
+        <v>44841</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -4136,8 +4137,8 @@
       <c r="G144" s="1">
         <v>0</v>
       </c>
-      <c r="H144" s="2">
-        <v>45115</v>
+      <c r="H144" s="4">
+        <v>44842</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -4162,8 +4163,8 @@
       <c r="G145" s="1">
         <v>0</v>
       </c>
-      <c r="H145" s="2">
-        <v>45116</v>
+      <c r="H145" s="4">
+        <v>44843</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -4188,8 +4189,8 @@
       <c r="G146" s="1">
         <v>0</v>
       </c>
-      <c r="H146" s="2">
-        <v>45117</v>
+      <c r="H146" s="4">
+        <v>44844</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -4214,8 +4215,8 @@
       <c r="G147" s="1">
         <v>1</v>
       </c>
-      <c r="H147" s="2">
-        <v>45118</v>
+      <c r="H147" s="4">
+        <v>44845</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -4240,8 +4241,8 @@
       <c r="G148" s="1">
         <v>1</v>
       </c>
-      <c r="H148" s="2">
-        <v>45119</v>
+      <c r="H148" s="4">
+        <v>44846</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -4266,8 +4267,8 @@
       <c r="G149" s="1">
         <v>1</v>
       </c>
-      <c r="H149" s="2">
-        <v>45120</v>
+      <c r="H149" s="4">
+        <v>44847</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -4292,8 +4293,8 @@
       <c r="G150" s="1">
         <v>1</v>
       </c>
-      <c r="H150" s="2">
-        <v>45121</v>
+      <c r="H150" s="4">
+        <v>44848</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -4318,8 +4319,8 @@
       <c r="G151" s="1">
         <v>1</v>
       </c>
-      <c r="H151" s="2">
-        <v>45122</v>
+      <c r="H151" s="4">
+        <v>44849</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -4344,8 +4345,8 @@
       <c r="G152" s="1">
         <v>1</v>
       </c>
-      <c r="H152" s="2">
-        <v>45123</v>
+      <c r="H152" s="4">
+        <v>44850</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -4370,8 +4371,8 @@
       <c r="G153" s="1">
         <v>0</v>
       </c>
-      <c r="H153" s="2">
-        <v>45124</v>
+      <c r="H153" s="4">
+        <v>44851</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -4396,8 +4397,8 @@
       <c r="G154" s="1">
         <v>0</v>
       </c>
-      <c r="H154" s="2">
-        <v>45125</v>
+      <c r="H154" s="4">
+        <v>44852</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -4422,8 +4423,8 @@
       <c r="G155" s="1">
         <v>0</v>
       </c>
-      <c r="H155" s="2">
-        <v>45126</v>
+      <c r="H155" s="4">
+        <v>44853</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -4448,8 +4449,8 @@
       <c r="G156" s="1">
         <v>0</v>
       </c>
-      <c r="H156" s="2">
-        <v>45127</v>
+      <c r="H156" s="4">
+        <v>44854</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -4474,8 +4475,8 @@
       <c r="G157" s="1">
         <v>0</v>
       </c>
-      <c r="H157" s="2">
-        <v>45128</v>
+      <c r="H157" s="4">
+        <v>44855</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -4500,8 +4501,8 @@
       <c r="G158" s="1">
         <v>0</v>
       </c>
-      <c r="H158" s="2">
-        <v>45129</v>
+      <c r="H158" s="4">
+        <v>44856</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -4526,8 +4527,8 @@
       <c r="G159" s="1">
         <v>0</v>
       </c>
-      <c r="H159" s="2">
-        <v>45130</v>
+      <c r="H159" s="4">
+        <v>44857</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -4552,8 +4553,8 @@
       <c r="G160" s="1">
         <v>0</v>
       </c>
-      <c r="H160" s="2">
-        <v>45131</v>
+      <c r="H160" s="4">
+        <v>44858</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -4578,8 +4579,8 @@
       <c r="G161" s="1">
         <v>0</v>
       </c>
-      <c r="H161" s="2">
-        <v>45132</v>
+      <c r="H161" s="4">
+        <v>44859</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -4604,8 +4605,8 @@
       <c r="G162" s="1">
         <v>0</v>
       </c>
-      <c r="H162" s="2">
-        <v>45133</v>
+      <c r="H162" s="4">
+        <v>44860</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -4630,8 +4631,8 @@
       <c r="G163" s="1">
         <v>0</v>
       </c>
-      <c r="H163" s="2">
-        <v>45134</v>
+      <c r="H163" s="4">
+        <v>44861</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -4656,8 +4657,8 @@
       <c r="G164" s="1">
         <v>0</v>
       </c>
-      <c r="H164" s="2">
-        <v>45135</v>
+      <c r="H164" s="4">
+        <v>44862</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -4682,8 +4683,8 @@
       <c r="G165" s="1">
         <v>0</v>
       </c>
-      <c r="H165" s="2">
-        <v>45136</v>
+      <c r="H165" s="4">
+        <v>44863</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -4708,8 +4709,8 @@
       <c r="G166" s="1">
         <v>0</v>
       </c>
-      <c r="H166" s="2">
-        <v>45137</v>
+      <c r="H166" s="4">
+        <v>44864</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -4734,8 +4735,8 @@
       <c r="G167" s="1">
         <v>0</v>
       </c>
-      <c r="H167" s="2">
-        <v>45138</v>
+      <c r="H167" s="4">
+        <v>44865</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -4760,8 +4761,8 @@
       <c r="G168" s="1">
         <v>0</v>
       </c>
-      <c r="H168" s="2">
-        <v>45139</v>
+      <c r="H168" s="4">
+        <v>44866</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -4786,8 +4787,8 @@
       <c r="G169" s="1">
         <v>0</v>
       </c>
-      <c r="H169" s="2">
-        <v>45140</v>
+      <c r="H169" s="4">
+        <v>44867</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -4812,8 +4813,8 @@
       <c r="G170" s="1">
         <v>0</v>
       </c>
-      <c r="H170" s="2">
-        <v>45141</v>
+      <c r="H170" s="4">
+        <v>44868</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -4838,8 +4839,8 @@
       <c r="G171" s="1">
         <v>0</v>
       </c>
-      <c r="H171" s="2">
-        <v>45142</v>
+      <c r="H171" s="4">
+        <v>44869</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -4864,8 +4865,8 @@
       <c r="G172" s="1">
         <v>0</v>
       </c>
-      <c r="H172" s="2">
-        <v>45143</v>
+      <c r="H172" s="4">
+        <v>44870</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -4890,8 +4891,8 @@
       <c r="G173" s="1">
         <v>0</v>
       </c>
-      <c r="H173" s="2">
-        <v>45144</v>
+      <c r="H173" s="4">
+        <v>44871</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -4916,8 +4917,8 @@
       <c r="G174" s="1">
         <v>0</v>
       </c>
-      <c r="H174" s="2">
-        <v>45145</v>
+      <c r="H174" s="4">
+        <v>44872</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -4942,8 +4943,8 @@
       <c r="G175" s="1">
         <v>0</v>
       </c>
-      <c r="H175" s="2">
-        <v>45146</v>
+      <c r="H175" s="4">
+        <v>44873</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -4968,8 +4969,8 @@
       <c r="G176" s="1">
         <v>0</v>
       </c>
-      <c r="H176" s="2">
-        <v>45147</v>
+      <c r="H176" s="4">
+        <v>44874</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -4994,8 +4995,8 @@
       <c r="G177" s="1">
         <v>0</v>
       </c>
-      <c r="H177" s="2">
-        <v>45148</v>
+      <c r="H177" s="4">
+        <v>44875</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -5020,8 +5021,8 @@
       <c r="G178" s="1">
         <v>0</v>
       </c>
-      <c r="H178" s="2">
-        <v>45149</v>
+      <c r="H178" s="4">
+        <v>44876</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -5046,8 +5047,8 @@
       <c r="G179" s="1">
         <v>0</v>
       </c>
-      <c r="H179" s="2">
-        <v>45150</v>
+      <c r="H179" s="4">
+        <v>44877</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -5072,8 +5073,8 @@
       <c r="G180" s="1">
         <v>0</v>
       </c>
-      <c r="H180" s="2">
-        <v>45151</v>
+      <c r="H180" s="4">
+        <v>44878</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -5098,8 +5099,8 @@
       <c r="G181" s="1">
         <v>0</v>
       </c>
-      <c r="H181" s="2">
-        <v>45152</v>
+      <c r="H181" s="4">
+        <v>44879</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -5124,8 +5125,8 @@
       <c r="G182" s="1">
         <v>0</v>
       </c>
-      <c r="H182" s="2">
-        <v>45153</v>
+      <c r="H182" s="4">
+        <v>44880</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -5150,8 +5151,8 @@
       <c r="G183" s="1">
         <v>1</v>
       </c>
-      <c r="H183" s="2">
-        <v>45154</v>
+      <c r="H183" s="4">
+        <v>44881</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -5176,8 +5177,8 @@
       <c r="G184" s="1">
         <v>1</v>
       </c>
-      <c r="H184" s="2">
-        <v>45155</v>
+      <c r="H184" s="4">
+        <v>44882</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -5202,8 +5203,8 @@
       <c r="G185" s="1">
         <v>1</v>
       </c>
-      <c r="H185" s="2">
-        <v>45156</v>
+      <c r="H185" s="4">
+        <v>44883</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -5228,8 +5229,8 @@
       <c r="G186" s="1">
         <v>1</v>
       </c>
-      <c r="H186" s="2">
-        <v>45157</v>
+      <c r="H186" s="4">
+        <v>44884</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -5254,8 +5255,8 @@
       <c r="G187" s="1">
         <v>1</v>
       </c>
-      <c r="H187" s="2">
-        <v>45158</v>
+      <c r="H187" s="4">
+        <v>44885</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -5280,8 +5281,8 @@
       <c r="G188" s="1">
         <v>1</v>
       </c>
-      <c r="H188" s="2">
-        <v>45159</v>
+      <c r="H188" s="4">
+        <v>44886</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -5306,8 +5307,8 @@
       <c r="G189" s="1">
         <v>0</v>
       </c>
-      <c r="H189" s="2">
-        <v>45160</v>
+      <c r="H189" s="4">
+        <v>44887</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -5332,8 +5333,8 @@
       <c r="G190" s="1">
         <v>0</v>
       </c>
-      <c r="H190" s="2">
-        <v>45161</v>
+      <c r="H190" s="4">
+        <v>44888</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -5358,8 +5359,8 @@
       <c r="G191" s="1">
         <v>0</v>
       </c>
-      <c r="H191" s="2">
-        <v>45162</v>
+      <c r="H191" s="4">
+        <v>44889</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -5384,8 +5385,8 @@
       <c r="G192" s="1">
         <v>0</v>
       </c>
-      <c r="H192" s="2">
-        <v>45163</v>
+      <c r="H192" s="4">
+        <v>44890</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -5410,8 +5411,8 @@
       <c r="G193" s="1">
         <v>0</v>
       </c>
-      <c r="H193" s="2">
-        <v>45164</v>
+      <c r="H193" s="4">
+        <v>44891</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -5436,8 +5437,8 @@
       <c r="G194" s="1">
         <v>0</v>
       </c>
-      <c r="H194" s="2">
-        <v>45165</v>
+      <c r="H194" s="4">
+        <v>44892</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -5462,8 +5463,8 @@
       <c r="G195" s="1">
         <v>0</v>
       </c>
-      <c r="H195" s="2">
-        <v>45166</v>
+      <c r="H195" s="4">
+        <v>44893</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -5488,8 +5489,8 @@
       <c r="G196" s="1">
         <v>0</v>
       </c>
-      <c r="H196" s="2">
-        <v>45167</v>
+      <c r="H196" s="4">
+        <v>44894</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -5514,8 +5515,8 @@
       <c r="G197" s="1">
         <v>0</v>
       </c>
-      <c r="H197" s="2">
-        <v>45168</v>
+      <c r="H197" s="4">
+        <v>44895</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -5540,8 +5541,8 @@
       <c r="G198" s="1">
         <v>0</v>
       </c>
-      <c r="H198" s="2">
-        <v>45169</v>
+      <c r="H198" s="4">
+        <v>44896</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -5566,8 +5567,8 @@
       <c r="G199" s="1">
         <v>0</v>
       </c>
-      <c r="H199" s="2">
-        <v>45170</v>
+      <c r="H199" s="4">
+        <v>44897</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -5592,8 +5593,8 @@
       <c r="G200" s="1">
         <v>0</v>
       </c>
-      <c r="H200" s="2">
-        <v>45171</v>
+      <c r="H200" s="4">
+        <v>44898</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -5618,8 +5619,8 @@
       <c r="G201" s="1">
         <v>0</v>
       </c>
-      <c r="H201" s="2">
-        <v>45172</v>
+      <c r="H201" s="4">
+        <v>44899</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -5644,8 +5645,8 @@
       <c r="G202" s="1">
         <v>0</v>
       </c>
-      <c r="H202" s="2">
-        <v>45173</v>
+      <c r="H202" s="4">
+        <v>44900</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -5670,8 +5671,8 @@
       <c r="G203" s="1">
         <v>0</v>
       </c>
-      <c r="H203" s="2">
-        <v>45174</v>
+      <c r="H203" s="4">
+        <v>44901</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -5696,8 +5697,8 @@
       <c r="G204" s="1">
         <v>0</v>
       </c>
-      <c r="H204" s="2">
-        <v>45175</v>
+      <c r="H204" s="4">
+        <v>44902</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -5722,8 +5723,8 @@
       <c r="G205" s="1">
         <v>0</v>
       </c>
-      <c r="H205" s="2">
-        <v>45176</v>
+      <c r="H205" s="4">
+        <v>44903</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -5748,8 +5749,8 @@
       <c r="G206" s="1">
         <v>0</v>
       </c>
-      <c r="H206" s="2">
-        <v>45177</v>
+      <c r="H206" s="4">
+        <v>44904</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -5774,8 +5775,8 @@
       <c r="G207" s="1">
         <v>0</v>
       </c>
-      <c r="H207" s="2">
-        <v>45178</v>
+      <c r="H207" s="4">
+        <v>44905</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -5800,8 +5801,8 @@
       <c r="G208" s="1">
         <v>0</v>
       </c>
-      <c r="H208" s="2">
-        <v>45179</v>
+      <c r="H208" s="4">
+        <v>44906</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -5826,8 +5827,8 @@
       <c r="G209" s="1">
         <v>0</v>
       </c>
-      <c r="H209" s="2">
-        <v>45180</v>
+      <c r="H209" s="4">
+        <v>44907</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -5852,8 +5853,8 @@
       <c r="G210" s="1">
         <v>0</v>
       </c>
-      <c r="H210" s="2">
-        <v>45181</v>
+      <c r="H210" s="4">
+        <v>44908</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -5878,8 +5879,8 @@
       <c r="G211" s="1">
         <v>0</v>
       </c>
-      <c r="H211" s="2">
-        <v>45182</v>
+      <c r="H211" s="4">
+        <v>44909</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
@@ -5904,8 +5905,8 @@
       <c r="G212" s="1">
         <v>0</v>
       </c>
-      <c r="H212" s="2">
-        <v>45183</v>
+      <c r="H212" s="4">
+        <v>44910</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -5930,8 +5931,8 @@
       <c r="G213" s="1">
         <v>0</v>
       </c>
-      <c r="H213" s="2">
-        <v>45184</v>
+      <c r="H213" s="4">
+        <v>44911</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -5956,8 +5957,8 @@
       <c r="G214" s="1">
         <v>0</v>
       </c>
-      <c r="H214" s="2">
-        <v>45185</v>
+      <c r="H214" s="4">
+        <v>44912</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -5982,8 +5983,8 @@
       <c r="G215" s="1">
         <v>0</v>
       </c>
-      <c r="H215" s="2">
-        <v>45186</v>
+      <c r="H215" s="4">
+        <v>44913</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -6008,8 +6009,8 @@
       <c r="G216" s="1">
         <v>0</v>
       </c>
-      <c r="H216" s="2">
-        <v>45187</v>
+      <c r="H216" s="4">
+        <v>44914</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -6034,8 +6035,8 @@
       <c r="G217" s="1">
         <v>0</v>
       </c>
-      <c r="H217" s="2">
-        <v>45188</v>
+      <c r="H217" s="4">
+        <v>44915</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -6060,8 +6061,8 @@
       <c r="G218" s="1">
         <v>0</v>
       </c>
-      <c r="H218" s="2">
-        <v>45189</v>
+      <c r="H218" s="4">
+        <v>44916</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
@@ -6086,8 +6087,8 @@
       <c r="G219" s="1">
         <v>1</v>
       </c>
-      <c r="H219" s="2">
-        <v>45190</v>
+      <c r="H219" s="4">
+        <v>44917</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
@@ -6112,8 +6113,8 @@
       <c r="G220" s="1">
         <v>1</v>
       </c>
-      <c r="H220" s="2">
-        <v>45191</v>
+      <c r="H220" s="4">
+        <v>44918</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -6138,8 +6139,8 @@
       <c r="G221" s="1">
         <v>1</v>
       </c>
-      <c r="H221" s="2">
-        <v>45192</v>
+      <c r="H221" s="4">
+        <v>44919</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -6164,8 +6165,8 @@
       <c r="G222" s="1">
         <v>1</v>
       </c>
-      <c r="H222" s="2">
-        <v>45193</v>
+      <c r="H222" s="4">
+        <v>44920</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
@@ -6190,8 +6191,8 @@
       <c r="G223" s="1">
         <v>1</v>
       </c>
-      <c r="H223" s="2">
-        <v>45194</v>
+      <c r="H223" s="4">
+        <v>44921</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -6216,8 +6217,8 @@
       <c r="G224" s="1">
         <v>1</v>
       </c>
-      <c r="H224" s="2">
-        <v>45195</v>
+      <c r="H224" s="4">
+        <v>44922</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -6242,8 +6243,8 @@
       <c r="G225" s="1">
         <v>0</v>
       </c>
-      <c r="H225" s="2">
-        <v>45196</v>
+      <c r="H225" s="4">
+        <v>44923</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -6268,8 +6269,8 @@
       <c r="G226" s="1">
         <v>0</v>
       </c>
-      <c r="H226" s="2">
-        <v>45197</v>
+      <c r="H226" s="4">
+        <v>44924</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -6294,8 +6295,8 @@
       <c r="G227" s="1">
         <v>0</v>
       </c>
-      <c r="H227" s="2">
-        <v>45198</v>
+      <c r="H227" s="4">
+        <v>44925</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -6320,8 +6321,8 @@
       <c r="G228" s="1">
         <v>0</v>
       </c>
-      <c r="H228" s="2">
-        <v>45199</v>
+      <c r="H228" s="4">
+        <v>44926</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
@@ -6346,8 +6347,8 @@
       <c r="G229" s="1">
         <v>0</v>
       </c>
-      <c r="H229" s="2">
-        <v>45200</v>
+      <c r="H229" s="4">
+        <v>44927</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
@@ -6372,8 +6373,8 @@
       <c r="G230" s="1">
         <v>0</v>
       </c>
-      <c r="H230" s="2">
-        <v>45201</v>
+      <c r="H230" s="4">
+        <v>44928</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -6398,8 +6399,8 @@
       <c r="G231" s="1">
         <v>0</v>
       </c>
-      <c r="H231" s="2">
-        <v>45202</v>
+      <c r="H231" s="4">
+        <v>44929</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -6424,8 +6425,8 @@
       <c r="G232" s="1">
         <v>0</v>
       </c>
-      <c r="H232" s="2">
-        <v>45203</v>
+      <c r="H232" s="4">
+        <v>44930</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -6450,8 +6451,8 @@
       <c r="G233" s="1">
         <v>0</v>
       </c>
-      <c r="H233" s="2">
-        <v>45204</v>
+      <c r="H233" s="4">
+        <v>44931</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -6476,8 +6477,8 @@
       <c r="G234" s="1">
         <v>0</v>
       </c>
-      <c r="H234" s="2">
-        <v>45205</v>
+      <c r="H234" s="4">
+        <v>44932</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
@@ -6502,8 +6503,8 @@
       <c r="G235" s="1">
         <v>0</v>
       </c>
-      <c r="H235" s="2">
-        <v>45206</v>
+      <c r="H235" s="4">
+        <v>44933</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -6528,8 +6529,8 @@
       <c r="G236" s="1">
         <v>0</v>
       </c>
-      <c r="H236" s="2">
-        <v>45207</v>
+      <c r="H236" s="4">
+        <v>44934</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -6554,8 +6555,8 @@
       <c r="G237" s="1">
         <v>0</v>
       </c>
-      <c r="H237" s="2">
-        <v>45208</v>
+      <c r="H237" s="4">
+        <v>44935</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -6580,8 +6581,8 @@
       <c r="G238" s="1">
         <v>0</v>
       </c>
-      <c r="H238" s="2">
-        <v>45209</v>
+      <c r="H238" s="4">
+        <v>44936</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -6606,8 +6607,8 @@
       <c r="G239" s="1">
         <v>0</v>
       </c>
-      <c r="H239" s="2">
-        <v>45210</v>
+      <c r="H239" s="4">
+        <v>44937</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
@@ -6632,8 +6633,8 @@
       <c r="G240" s="1">
         <v>0</v>
       </c>
-      <c r="H240" s="2">
-        <v>45211</v>
+      <c r="H240" s="4">
+        <v>44938</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -6658,8 +6659,8 @@
       <c r="G241" s="1">
         <v>0</v>
       </c>
-      <c r="H241" s="2">
-        <v>45212</v>
+      <c r="H241" s="4">
+        <v>44939</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -6684,8 +6685,8 @@
       <c r="G242" s="1">
         <v>0</v>
       </c>
-      <c r="H242" s="2">
-        <v>45213</v>
+      <c r="H242" s="4">
+        <v>44940</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -6710,8 +6711,8 @@
       <c r="G243" s="1">
         <v>0</v>
       </c>
-      <c r="H243" s="2">
-        <v>45214</v>
+      <c r="H243" s="4">
+        <v>44941</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -6736,8 +6737,8 @@
       <c r="G244" s="1">
         <v>0</v>
       </c>
-      <c r="H244" s="2">
-        <v>45215</v>
+      <c r="H244" s="4">
+        <v>44942</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -6762,8 +6763,8 @@
       <c r="G245" s="1">
         <v>0</v>
       </c>
-      <c r="H245" s="2">
-        <v>45216</v>
+      <c r="H245" s="4">
+        <v>44943</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
@@ -6788,8 +6789,8 @@
       <c r="G246" s="1">
         <v>0</v>
       </c>
-      <c r="H246" s="2">
-        <v>45217</v>
+      <c r="H246" s="4">
+        <v>44944</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
@@ -6814,8 +6815,8 @@
       <c r="G247" s="1">
         <v>0</v>
       </c>
-      <c r="H247" s="2">
-        <v>45218</v>
+      <c r="H247" s="4">
+        <v>44945</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -6840,8 +6841,8 @@
       <c r="G248" s="1">
         <v>0</v>
       </c>
-      <c r="H248" s="2">
-        <v>45219</v>
+      <c r="H248" s="4">
+        <v>44946</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -6866,8 +6867,8 @@
       <c r="G249" s="1">
         <v>0</v>
       </c>
-      <c r="H249" s="2">
-        <v>45220</v>
+      <c r="H249" s="4">
+        <v>44947</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
@@ -6892,8 +6893,8 @@
       <c r="G250" s="1">
         <v>0</v>
       </c>
-      <c r="H250" s="2">
-        <v>45221</v>
+      <c r="H250" s="4">
+        <v>44948</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
@@ -6918,8 +6919,8 @@
       <c r="G251" s="1">
         <v>0</v>
       </c>
-      <c r="H251" s="2">
-        <v>45222</v>
+      <c r="H251" s="4">
+        <v>44949</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -6944,8 +6945,8 @@
       <c r="G252" s="1">
         <v>0</v>
       </c>
-      <c r="H252" s="2">
-        <v>45223</v>
+      <c r="H252" s="4">
+        <v>44950</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
@@ -6970,8 +6971,8 @@
       <c r="G253" s="1">
         <v>1</v>
       </c>
-      <c r="H253" s="2">
-        <v>45224</v>
+      <c r="H253" s="4">
+        <v>44951</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
@@ -6996,8 +6997,8 @@
       <c r="G254" s="1">
         <v>1</v>
       </c>
-      <c r="H254" s="2">
-        <v>45225</v>
+      <c r="H254" s="4">
+        <v>44952</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -7022,8 +7023,8 @@
       <c r="G255" s="1">
         <v>1</v>
       </c>
-      <c r="H255" s="2">
-        <v>45226</v>
+      <c r="H255" s="4">
+        <v>44953</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -7048,8 +7049,8 @@
       <c r="G256" s="1">
         <v>1</v>
       </c>
-      <c r="H256" s="2">
-        <v>45227</v>
+      <c r="H256" s="4">
+        <v>44954</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -7074,8 +7075,8 @@
       <c r="G257" s="1">
         <v>1</v>
       </c>
-      <c r="H257" s="2">
-        <v>45228</v>
+      <c r="H257" s="4">
+        <v>44955</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -7100,8 +7101,8 @@
       <c r="G258" s="1">
         <v>1</v>
       </c>
-      <c r="H258" s="2">
-        <v>45229</v>
+      <c r="H258" s="4">
+        <v>44956</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -7126,8 +7127,8 @@
       <c r="G259" s="1">
         <v>0</v>
       </c>
-      <c r="H259" s="2">
-        <v>45230</v>
+      <c r="H259" s="4">
+        <v>44957</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
@@ -7152,8 +7153,8 @@
       <c r="G260" s="1">
         <v>0</v>
       </c>
-      <c r="H260" s="2">
-        <v>45231</v>
+      <c r="H260" s="4">
+        <v>44958</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -7178,8 +7179,8 @@
       <c r="G261" s="1">
         <v>0</v>
       </c>
-      <c r="H261" s="2">
-        <v>45232</v>
+      <c r="H261" s="4">
+        <v>44959</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -7204,8 +7205,8 @@
       <c r="G262" s="1">
         <v>0</v>
       </c>
-      <c r="H262" s="2">
-        <v>45233</v>
+      <c r="H262" s="4">
+        <v>44960</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
@@ -7230,8 +7231,8 @@
       <c r="G263" s="1">
         <v>0</v>
       </c>
-      <c r="H263" s="2">
-        <v>45234</v>
+      <c r="H263" s="4">
+        <v>44961</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
@@ -7256,8 +7257,8 @@
       <c r="G264" s="1">
         <v>0</v>
       </c>
-      <c r="H264" s="2">
-        <v>45235</v>
+      <c r="H264" s="4">
+        <v>44962</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
@@ -7282,8 +7283,8 @@
       <c r="G265" s="1">
         <v>0</v>
       </c>
-      <c r="H265" s="2">
-        <v>45236</v>
+      <c r="H265" s="4">
+        <v>44963</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
@@ -7308,8 +7309,8 @@
       <c r="G266" s="1">
         <v>0</v>
       </c>
-      <c r="H266" s="2">
-        <v>45237</v>
+      <c r="H266" s="4">
+        <v>44964</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
@@ -7334,8 +7335,8 @@
       <c r="G267" s="1">
         <v>0</v>
       </c>
-      <c r="H267" s="2">
-        <v>45238</v>
+      <c r="H267" s="4">
+        <v>44965</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
@@ -7360,8 +7361,8 @@
       <c r="G268" s="1">
         <v>0</v>
       </c>
-      <c r="H268" s="2">
-        <v>45239</v>
+      <c r="H268" s="4">
+        <v>44966</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
@@ -7386,8 +7387,8 @@
       <c r="G269" s="1">
         <v>0</v>
       </c>
-      <c r="H269" s="2">
-        <v>45240</v>
+      <c r="H269" s="4">
+        <v>44967</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
@@ -7412,8 +7413,8 @@
       <c r="G270" s="1">
         <v>0</v>
       </c>
-      <c r="H270" s="2">
-        <v>45241</v>
+      <c r="H270" s="4">
+        <v>44968</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -7438,8 +7439,8 @@
       <c r="G271" s="1">
         <v>0</v>
       </c>
-      <c r="H271" s="2">
-        <v>45242</v>
+      <c r="H271" s="4">
+        <v>44969</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -7464,8 +7465,8 @@
       <c r="G272" s="1">
         <v>0</v>
       </c>
-      <c r="H272" s="2">
-        <v>45243</v>
+      <c r="H272" s="4">
+        <v>44970</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
@@ -7490,8 +7491,8 @@
       <c r="G273" s="1">
         <v>0</v>
       </c>
-      <c r="H273" s="2">
-        <v>45244</v>
+      <c r="H273" s="4">
+        <v>44971</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
@@ -7516,8 +7517,8 @@
       <c r="G274" s="1">
         <v>0</v>
       </c>
-      <c r="H274" s="2">
-        <v>45245</v>
+      <c r="H274" s="4">
+        <v>44972</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
@@ -7542,8 +7543,8 @@
       <c r="G275" s="1">
         <v>0</v>
       </c>
-      <c r="H275" s="2">
-        <v>45246</v>
+      <c r="H275" s="4">
+        <v>44973</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
@@ -7568,8 +7569,8 @@
       <c r="G276" s="1">
         <v>0</v>
       </c>
-      <c r="H276" s="2">
-        <v>45247</v>
+      <c r="H276" s="4">
+        <v>44974</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
@@ -7594,8 +7595,8 @@
       <c r="G277" s="1">
         <v>0</v>
       </c>
-      <c r="H277" s="2">
-        <v>45248</v>
+      <c r="H277" s="4">
+        <v>44975</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
@@ -7620,8 +7621,8 @@
       <c r="G278" s="1">
         <v>0</v>
       </c>
-      <c r="H278" s="2">
-        <v>45249</v>
+      <c r="H278" s="4">
+        <v>44976</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -7646,8 +7647,8 @@
       <c r="G279" s="1">
         <v>0</v>
       </c>
-      <c r="H279" s="2">
-        <v>45250</v>
+      <c r="H279" s="4">
+        <v>44977</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -7672,8 +7673,8 @@
       <c r="G280" s="1">
         <v>0</v>
       </c>
-      <c r="H280" s="2">
-        <v>45251</v>
+      <c r="H280" s="4">
+        <v>44978</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
@@ -7698,8 +7699,8 @@
       <c r="G281" s="1">
         <v>0</v>
       </c>
-      <c r="H281" s="2">
-        <v>45252</v>
+      <c r="H281" s="4">
+        <v>44979</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -7724,8 +7725,8 @@
       <c r="G282" s="1">
         <v>0</v>
       </c>
-      <c r="H282" s="2">
-        <v>45253</v>
+      <c r="H282" s="4">
+        <v>44980</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -7750,8 +7751,8 @@
       <c r="G283" s="1">
         <v>0</v>
       </c>
-      <c r="H283" s="2">
-        <v>45254</v>
+      <c r="H283" s="4">
+        <v>44981</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -7776,8 +7777,8 @@
       <c r="G284" s="1">
         <v>0</v>
       </c>
-      <c r="H284" s="2">
-        <v>45255</v>
+      <c r="H284" s="4">
+        <v>44982</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
@@ -7802,8 +7803,8 @@
       <c r="G285" s="1">
         <v>0</v>
       </c>
-      <c r="H285" s="2">
-        <v>45256</v>
+      <c r="H285" s="4">
+        <v>44983</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
@@ -7828,8 +7829,8 @@
       <c r="G286" s="1">
         <v>0</v>
       </c>
-      <c r="H286" s="2">
-        <v>45257</v>
+      <c r="H286" s="4">
+        <v>44984</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
@@ -7854,8 +7855,8 @@
       <c r="G287" s="1">
         <v>1</v>
       </c>
-      <c r="H287" s="2">
-        <v>45258</v>
+      <c r="H287" s="4">
+        <v>44985</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
@@ -7880,8 +7881,8 @@
       <c r="G288" s="1">
         <v>1</v>
       </c>
-      <c r="H288" s="2">
-        <v>45259</v>
+      <c r="H288" s="4">
+        <v>44986</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
@@ -7906,8 +7907,8 @@
       <c r="G289" s="1">
         <v>1</v>
       </c>
-      <c r="H289" s="2">
-        <v>45260</v>
+      <c r="H289" s="4">
+        <v>44987</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
@@ -7932,8 +7933,8 @@
       <c r="G290" s="1">
         <v>1</v>
       </c>
-      <c r="H290" s="2">
-        <v>45261</v>
+      <c r="H290" s="4">
+        <v>44988</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
@@ -7958,8 +7959,8 @@
       <c r="G291" s="1">
         <v>1</v>
       </c>
-      <c r="H291" s="2">
-        <v>45262</v>
+      <c r="H291" s="4">
+        <v>44989</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
@@ -7984,8 +7985,8 @@
       <c r="G292" s="1">
         <v>1</v>
       </c>
-      <c r="H292" s="2">
-        <v>45263</v>
+      <c r="H292" s="4">
+        <v>44990</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
@@ -8010,8 +8011,8 @@
       <c r="G293" s="1">
         <v>0</v>
       </c>
-      <c r="H293" s="2">
-        <v>45264</v>
+      <c r="H293" s="4">
+        <v>44991</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
@@ -8036,8 +8037,8 @@
       <c r="G294" s="1">
         <v>0</v>
       </c>
-      <c r="H294" s="2">
-        <v>45265</v>
+      <c r="H294" s="4">
+        <v>44992</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
@@ -8062,8 +8063,8 @@
       <c r="G295" s="1">
         <v>0</v>
       </c>
-      <c r="H295" s="2">
-        <v>45266</v>
+      <c r="H295" s="4">
+        <v>44993</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
@@ -8088,8 +8089,8 @@
       <c r="G296" s="1">
         <v>0</v>
       </c>
-      <c r="H296" s="2">
-        <v>45267</v>
+      <c r="H296" s="4">
+        <v>44994</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
@@ -8114,8 +8115,8 @@
       <c r="G297" s="1">
         <v>0</v>
       </c>
-      <c r="H297" s="2">
-        <v>45268</v>
+      <c r="H297" s="4">
+        <v>44995</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
@@ -8140,8 +8141,8 @@
       <c r="G298" s="1">
         <v>0</v>
       </c>
-      <c r="H298" s="2">
-        <v>45269</v>
+      <c r="H298" s="4">
+        <v>44996</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
@@ -8166,8 +8167,8 @@
       <c r="G299" s="1">
         <v>0</v>
       </c>
-      <c r="H299" s="2">
-        <v>45270</v>
+      <c r="H299" s="4">
+        <v>44997</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
@@ -8192,8 +8193,8 @@
       <c r="G300" s="1">
         <v>0</v>
       </c>
-      <c r="H300" s="2">
-        <v>45271</v>
+      <c r="H300" s="4">
+        <v>44998</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
@@ -8218,8 +8219,8 @@
       <c r="G301" s="1">
         <v>0</v>
       </c>
-      <c r="H301" s="2">
-        <v>45272</v>
+      <c r="H301" s="4">
+        <v>44999</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
@@ -8244,8 +8245,8 @@
       <c r="G302" s="1">
         <v>0</v>
       </c>
-      <c r="H302" s="2">
-        <v>45273</v>
+      <c r="H302" s="4">
+        <v>45000</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -8270,8 +8271,8 @@
       <c r="G303" s="1">
         <v>0</v>
       </c>
-      <c r="H303" s="2">
-        <v>45274</v>
+      <c r="H303" s="4">
+        <v>45001</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -8296,8 +8297,8 @@
       <c r="G304" s="1">
         <v>0</v>
       </c>
-      <c r="H304" s="2">
-        <v>45275</v>
+      <c r="H304" s="4">
+        <v>45002</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
@@ -8322,8 +8323,8 @@
       <c r="G305" s="1">
         <v>0</v>
       </c>
-      <c r="H305" s="2">
-        <v>45276</v>
+      <c r="H305" s="4">
+        <v>45003</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
@@ -8348,8 +8349,8 @@
       <c r="G306" s="1">
         <v>0</v>
       </c>
-      <c r="H306" s="2">
-        <v>45277</v>
+      <c r="H306" s="4">
+        <v>45004</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
@@ -8374,8 +8375,8 @@
       <c r="G307" s="1">
         <v>0</v>
       </c>
-      <c r="H307" s="2">
-        <v>45278</v>
+      <c r="H307" s="4">
+        <v>45005</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
@@ -8400,8 +8401,8 @@
       <c r="G308" s="1">
         <v>0</v>
       </c>
-      <c r="H308" s="2">
-        <v>45279</v>
+      <c r="H308" s="4">
+        <v>45006</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
@@ -8426,8 +8427,8 @@
       <c r="G309" s="1">
         <v>0</v>
       </c>
-      <c r="H309" s="2">
-        <v>45280</v>
+      <c r="H309" s="4">
+        <v>45007</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
@@ -8452,8 +8453,8 @@
       <c r="G310" s="1">
         <v>0</v>
       </c>
-      <c r="H310" s="2">
-        <v>45281</v>
+      <c r="H310" s="4">
+        <v>45008</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
@@ -8478,8 +8479,8 @@
       <c r="G311" s="1">
         <v>0</v>
       </c>
-      <c r="H311" s="2">
-        <v>45282</v>
+      <c r="H311" s="4">
+        <v>45009</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -8504,8 +8505,8 @@
       <c r="G312" s="1">
         <v>0</v>
       </c>
-      <c r="H312" s="2">
-        <v>45283</v>
+      <c r="H312" s="4">
+        <v>45010</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -8530,8 +8531,8 @@
       <c r="G313" s="1">
         <v>0</v>
       </c>
-      <c r="H313" s="2">
-        <v>45284</v>
+      <c r="H313" s="4">
+        <v>45011</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
@@ -8556,8 +8557,8 @@
       <c r="G314" s="1">
         <v>0</v>
       </c>
-      <c r="H314" s="2">
-        <v>45285</v>
+      <c r="H314" s="4">
+        <v>45012</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -8582,8 +8583,8 @@
       <c r="G315" s="1">
         <v>0</v>
       </c>
-      <c r="H315" s="2">
-        <v>45286</v>
+      <c r="H315" s="4">
+        <v>45013</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
@@ -8608,8 +8609,8 @@
       <c r="G316" s="1">
         <v>0</v>
       </c>
-      <c r="H316" s="2">
-        <v>45287</v>
+      <c r="H316" s="4">
+        <v>45014</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
@@ -8634,8 +8635,8 @@
       <c r="G317" s="1">
         <v>0</v>
       </c>
-      <c r="H317" s="2">
-        <v>45288</v>
+      <c r="H317" s="4">
+        <v>45015</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
@@ -8660,8 +8661,8 @@
       <c r="G318" s="1">
         <v>0</v>
       </c>
-      <c r="H318" s="2">
-        <v>45289</v>
+      <c r="H318" s="4">
+        <v>45016</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
@@ -8686,8 +8687,8 @@
       <c r="G319" s="1">
         <v>0</v>
       </c>
-      <c r="H319" s="2">
-        <v>45290</v>
+      <c r="H319" s="4">
+        <v>45017</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
@@ -8712,8 +8713,8 @@
       <c r="G320" s="1">
         <v>0</v>
       </c>
-      <c r="H320" s="2">
-        <v>45291</v>
+      <c r="H320" s="4">
+        <v>45018</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
@@ -8738,8 +8739,8 @@
       <c r="G321" s="1">
         <v>0</v>
       </c>
-      <c r="H321" s="2">
-        <v>45292</v>
+      <c r="H321" s="4">
+        <v>45019</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
@@ -8764,8 +8765,8 @@
       <c r="G322" s="1">
         <v>1</v>
       </c>
-      <c r="H322" s="2">
-        <v>45293</v>
+      <c r="H322" s="4">
+        <v>45020</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
@@ -8790,8 +8791,8 @@
       <c r="G323" s="1">
         <v>1</v>
       </c>
-      <c r="H323" s="2">
-        <v>45294</v>
+      <c r="H323" s="4">
+        <v>45021</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
@@ -8816,8 +8817,8 @@
       <c r="G324" s="1">
         <v>1</v>
       </c>
-      <c r="H324" s="2">
-        <v>45295</v>
+      <c r="H324" s="4">
+        <v>45022</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
@@ -8842,8 +8843,8 @@
       <c r="G325" s="1">
         <v>1</v>
       </c>
-      <c r="H325" s="2">
-        <v>45296</v>
+      <c r="H325" s="4">
+        <v>45023</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
@@ -8868,8 +8869,8 @@
       <c r="G326" s="1">
         <v>1</v>
       </c>
-      <c r="H326" s="2">
-        <v>45297</v>
+      <c r="H326" s="4">
+        <v>45024</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
@@ -8894,8 +8895,8 @@
       <c r="G327" s="1">
         <v>1</v>
       </c>
-      <c r="H327" s="2">
-        <v>45298</v>
+      <c r="H327" s="4">
+        <v>45025</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -8920,8 +8921,8 @@
       <c r="G328" s="1">
         <v>0</v>
       </c>
-      <c r="H328" s="2">
-        <v>45299</v>
+      <c r="H328" s="4">
+        <v>45026</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
@@ -8946,8 +8947,8 @@
       <c r="G329" s="1">
         <v>0</v>
       </c>
-      <c r="H329" s="2">
-        <v>45300</v>
+      <c r="H329" s="4">
+        <v>45027</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
@@ -8972,8 +8973,8 @@
       <c r="G330" s="1">
         <v>0</v>
       </c>
-      <c r="H330" s="2">
-        <v>45301</v>
+      <c r="H330" s="4">
+        <v>45028</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
@@ -8998,8 +8999,8 @@
       <c r="G331" s="1">
         <v>0</v>
       </c>
-      <c r="H331" s="2">
-        <v>45302</v>
+      <c r="H331" s="4">
+        <v>45029</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -9024,8 +9025,8 @@
       <c r="G332" s="1">
         <v>0</v>
       </c>
-      <c r="H332" s="2">
-        <v>45303</v>
+      <c r="H332" s="4">
+        <v>45030</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
@@ -9050,8 +9051,8 @@
       <c r="G333" s="1">
         <v>0</v>
       </c>
-      <c r="H333" s="2">
-        <v>45304</v>
+      <c r="H333" s="4">
+        <v>45031</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
@@ -9076,8 +9077,8 @@
       <c r="G334" s="1">
         <v>0</v>
       </c>
-      <c r="H334" s="2">
-        <v>45305</v>
+      <c r="H334" s="4">
+        <v>45032</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
@@ -9102,8 +9103,8 @@
       <c r="G335" s="1">
         <v>0</v>
       </c>
-      <c r="H335" s="2">
-        <v>45306</v>
+      <c r="H335" s="4">
+        <v>45033</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
@@ -9128,8 +9129,8 @@
       <c r="G336" s="1">
         <v>0</v>
       </c>
-      <c r="H336" s="2">
-        <v>45307</v>
+      <c r="H336" s="4">
+        <v>45034</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
@@ -9154,8 +9155,8 @@
       <c r="G337" s="1">
         <v>0</v>
       </c>
-      <c r="H337" s="2">
-        <v>45308</v>
+      <c r="H337" s="4">
+        <v>45035</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
@@ -9180,8 +9181,8 @@
       <c r="G338" s="1">
         <v>0</v>
       </c>
-      <c r="H338" s="2">
-        <v>45309</v>
+      <c r="H338" s="4">
+        <v>45036</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
@@ -9206,8 +9207,8 @@
       <c r="G339" s="1">
         <v>0</v>
       </c>
-      <c r="H339" s="2">
-        <v>45310</v>
+      <c r="H339" s="4">
+        <v>45037</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
@@ -9232,8 +9233,8 @@
       <c r="G340" s="1">
         <v>0</v>
       </c>
-      <c r="H340" s="2">
-        <v>45311</v>
+      <c r="H340" s="4">
+        <v>45038</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
@@ -9258,8 +9259,8 @@
       <c r="G341" s="1">
         <v>0</v>
       </c>
-      <c r="H341" s="2">
-        <v>45312</v>
+      <c r="H341" s="4">
+        <v>45039</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
@@ -9284,8 +9285,8 @@
       <c r="G342" s="1">
         <v>0</v>
       </c>
-      <c r="H342" s="2">
-        <v>45313</v>
+      <c r="H342" s="4">
+        <v>45040</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
@@ -9310,8 +9311,8 @@
       <c r="G343" s="1">
         <v>0</v>
       </c>
-      <c r="H343" s="2">
-        <v>45314</v>
+      <c r="H343" s="4">
+        <v>45041</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
@@ -9336,8 +9337,8 @@
       <c r="G344" s="1">
         <v>0</v>
       </c>
-      <c r="H344" s="2">
-        <v>45315</v>
+      <c r="H344" s="4">
+        <v>45042</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
@@ -9362,8 +9363,8 @@
       <c r="G345" s="1">
         <v>0</v>
       </c>
-      <c r="H345" s="2">
-        <v>45316</v>
+      <c r="H345" s="4">
+        <v>45043</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
@@ -9388,8 +9389,8 @@
       <c r="G346" s="1">
         <v>0</v>
       </c>
-      <c r="H346" s="2">
-        <v>45317</v>
+      <c r="H346" s="4">
+        <v>45044</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
@@ -9414,8 +9415,8 @@
       <c r="G347" s="1">
         <v>0</v>
       </c>
-      <c r="H347" s="2">
-        <v>45318</v>
+      <c r="H347" s="4">
+        <v>45045</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
@@ -9440,8 +9441,8 @@
       <c r="G348" s="1">
         <v>0</v>
       </c>
-      <c r="H348" s="2">
-        <v>45319</v>
+      <c r="H348" s="4">
+        <v>45046</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
@@ -9466,8 +9467,8 @@
       <c r="G349" s="1">
         <v>0</v>
       </c>
-      <c r="H349" s="2">
-        <v>45320</v>
+      <c r="H349" s="4">
+        <v>45047</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
@@ -9492,8 +9493,8 @@
       <c r="G350" s="1">
         <v>0</v>
       </c>
-      <c r="H350" s="2">
-        <v>45321</v>
+      <c r="H350" s="4">
+        <v>45048</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
@@ -9518,8 +9519,8 @@
       <c r="G351" s="1">
         <v>0</v>
       </c>
-      <c r="H351" s="2">
-        <v>45322</v>
+      <c r="H351" s="4">
+        <v>45049</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
@@ -9544,8 +9545,8 @@
       <c r="G352" s="1">
         <v>0</v>
       </c>
-      <c r="H352" s="2">
-        <v>45323</v>
+      <c r="H352" s="4">
+        <v>45050</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
@@ -9570,8 +9571,8 @@
       <c r="G353" s="1">
         <v>0</v>
       </c>
-      <c r="H353" s="2">
-        <v>45324</v>
+      <c r="H353" s="4">
+        <v>45051</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
@@ -9596,8 +9597,8 @@
       <c r="G354" s="1">
         <v>0</v>
       </c>
-      <c r="H354" s="2">
-        <v>45325</v>
+      <c r="H354" s="4">
+        <v>45052</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
@@ -9622,8 +9623,8 @@
       <c r="G355" s="1">
         <v>0</v>
       </c>
-      <c r="H355" s="2">
-        <v>45326</v>
+      <c r="H355" s="4">
+        <v>45053</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
@@ -9648,8 +9649,8 @@
       <c r="G356" s="1">
         <v>0</v>
       </c>
-      <c r="H356" s="2">
-        <v>45327</v>
+      <c r="H356" s="4">
+        <v>45054</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
@@ -9674,8 +9675,8 @@
       <c r="G357" s="1">
         <v>0</v>
       </c>
-      <c r="H357" s="2">
-        <v>45328</v>
+      <c r="H357" s="4">
+        <v>45055</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
@@ -9700,8 +9701,8 @@
       <c r="G358" s="1">
         <v>1</v>
       </c>
-      <c r="H358" s="2">
-        <v>45329</v>
+      <c r="H358" s="4">
+        <v>45056</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
@@ -9726,8 +9727,8 @@
       <c r="G359" s="1">
         <v>1</v>
       </c>
-      <c r="H359" s="2">
-        <v>45330</v>
+      <c r="H359" s="4">
+        <v>45057</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
@@ -9752,8 +9753,8 @@
       <c r="G360" s="1">
         <v>1</v>
       </c>
-      <c r="H360" s="2">
-        <v>45331</v>
+      <c r="H360" s="4">
+        <v>45058</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
@@ -9778,8 +9779,8 @@
       <c r="G361" s="1">
         <v>1</v>
       </c>
-      <c r="H361" s="2">
-        <v>45332</v>
+      <c r="H361" s="4">
+        <v>45059</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -9804,8 +9805,8 @@
       <c r="G362" s="1">
         <v>1</v>
       </c>
-      <c r="H362" s="2">
-        <v>45333</v>
+      <c r="H362" s="4">
+        <v>45060</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
@@ -9830,8 +9831,8 @@
       <c r="G363" s="1">
         <v>1</v>
       </c>
-      <c r="H363" s="2">
-        <v>45334</v>
+      <c r="H363" s="4">
+        <v>45061</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
@@ -9856,8 +9857,8 @@
       <c r="G364" s="1">
         <v>0</v>
       </c>
-      <c r="H364" s="2">
-        <v>45335</v>
+      <c r="H364" s="4">
+        <v>45062</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
@@ -9882,8 +9883,8 @@
       <c r="G365" s="1">
         <v>0</v>
       </c>
-      <c r="H365" s="2">
-        <v>45336</v>
+      <c r="H365" s="4">
+        <v>45063</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
@@ -9908,8 +9909,8 @@
       <c r="G366" s="1">
         <v>0</v>
       </c>
-      <c r="H366" s="2">
-        <v>45337</v>
+      <c r="H366" s="4">
+        <v>45064</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
@@ -9934,8 +9935,8 @@
       <c r="G367" s="1">
         <v>0</v>
       </c>
-      <c r="H367" s="2">
-        <v>45338</v>
+      <c r="H367" s="4">
+        <v>45065</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
@@ -9960,8 +9961,8 @@
       <c r="G368" s="1">
         <v>0</v>
       </c>
-      <c r="H368" s="2">
-        <v>45339</v>
+      <c r="H368" s="4">
+        <v>45066</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
@@ -9986,8 +9987,8 @@
       <c r="G369" s="1">
         <v>0</v>
       </c>
-      <c r="H369" s="2">
-        <v>45340</v>
+      <c r="H369" s="4">
+        <v>45067</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
@@ -10012,8 +10013,8 @@
       <c r="G370" s="1">
         <v>0</v>
       </c>
-      <c r="H370" s="2">
-        <v>45341</v>
+      <c r="H370" s="4">
+        <v>45068</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
@@ -10038,8 +10039,8 @@
       <c r="G371" s="1">
         <v>0</v>
       </c>
-      <c r="H371" s="2">
-        <v>45342</v>
+      <c r="H371" s="4">
+        <v>45069</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
@@ -10064,8 +10065,8 @@
       <c r="G372" s="1">
         <v>0</v>
       </c>
-      <c r="H372" s="2">
-        <v>45343</v>
+      <c r="H372" s="4">
+        <v>45070</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
@@ -10090,8 +10091,8 @@
       <c r="G373" s="1">
         <v>0</v>
       </c>
-      <c r="H373" s="2">
-        <v>45344</v>
+      <c r="H373" s="4">
+        <v>45071</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
@@ -10116,8 +10117,8 @@
       <c r="G374" s="1">
         <v>0</v>
       </c>
-      <c r="H374" s="2">
-        <v>45345</v>
+      <c r="H374" s="4">
+        <v>45072</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
@@ -10142,8 +10143,8 @@
       <c r="G375" s="1">
         <v>0</v>
       </c>
-      <c r="H375" s="2">
-        <v>45346</v>
+      <c r="H375" s="4">
+        <v>45073</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
@@ -10168,8 +10169,8 @@
       <c r="G376" s="1">
         <v>0</v>
       </c>
-      <c r="H376" s="2">
-        <v>45347</v>
+      <c r="H376" s="4">
+        <v>45074</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
@@ -10194,8 +10195,8 @@
       <c r="G377" s="1">
         <v>0</v>
       </c>
-      <c r="H377" s="2">
-        <v>45348</v>
+      <c r="H377" s="4">
+        <v>45075</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
@@ -10220,8 +10221,8 @@
       <c r="G378" s="1">
         <v>0</v>
       </c>
-      <c r="H378" s="2">
-        <v>45349</v>
+      <c r="H378" s="4">
+        <v>45076</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
@@ -10246,8 +10247,8 @@
       <c r="G379" s="1">
         <v>0</v>
       </c>
-      <c r="H379" s="2">
-        <v>45350</v>
+      <c r="H379" s="4">
+        <v>45077</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
@@ -10272,8 +10273,8 @@
       <c r="G380" s="1">
         <v>0</v>
       </c>
-      <c r="H380" s="2">
-        <v>45351</v>
+      <c r="H380" s="4">
+        <v>45078</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
@@ -10298,8 +10299,8 @@
       <c r="G381" s="1">
         <v>0</v>
       </c>
-      <c r="H381" s="2">
-        <v>45352</v>
+      <c r="H381" s="4">
+        <v>45079</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
@@ -10324,8 +10325,8 @@
       <c r="G382" s="1">
         <v>0</v>
       </c>
-      <c r="H382" s="2">
-        <v>45353</v>
+      <c r="H382" s="4">
+        <v>45080</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
@@ -10350,8 +10351,8 @@
       <c r="G383" s="1">
         <v>0</v>
       </c>
-      <c r="H383" s="2">
-        <v>45354</v>
+      <c r="H383" s="4">
+        <v>45081</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
@@ -10376,8 +10377,8 @@
       <c r="G384" s="1">
         <v>0</v>
       </c>
-      <c r="H384" s="2">
-        <v>45355</v>
+      <c r="H384" s="4">
+        <v>45082</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
@@ -10402,8 +10403,8 @@
       <c r="G385" s="1">
         <v>0</v>
       </c>
-      <c r="H385" s="2">
-        <v>45356</v>
+      <c r="H385" s="4">
+        <v>45083</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
@@ -10428,8 +10429,8 @@
       <c r="G386" s="1">
         <v>0</v>
       </c>
-      <c r="H386" s="2">
-        <v>45357</v>
+      <c r="H386" s="4">
+        <v>45084</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
@@ -10454,8 +10455,8 @@
       <c r="G387" s="1">
         <v>0</v>
       </c>
-      <c r="H387" s="2">
-        <v>45358</v>
+      <c r="H387" s="4">
+        <v>45085</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
@@ -10480,8 +10481,8 @@
       <c r="G388" s="1">
         <v>0</v>
       </c>
-      <c r="H388" s="2">
-        <v>45359</v>
+      <c r="H388" s="4">
+        <v>45086</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
@@ -10506,8 +10507,8 @@
       <c r="G389" s="1">
         <v>0</v>
       </c>
-      <c r="H389" s="2">
-        <v>45360</v>
+      <c r="H389" s="4">
+        <v>45087</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
@@ -10532,8 +10533,8 @@
       <c r="G390" s="1">
         <v>0</v>
       </c>
-      <c r="H390" s="2">
-        <v>45361</v>
+      <c r="H390" s="4">
+        <v>45088</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
@@ -10558,8 +10559,8 @@
       <c r="G391" s="1">
         <v>0</v>
       </c>
-      <c r="H391" s="2">
-        <v>45362</v>
+      <c r="H391" s="4">
+        <v>45089</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
@@ -10584,8 +10585,8 @@
       <c r="G392" s="1">
         <v>0</v>
       </c>
-      <c r="H392" s="2">
-        <v>45363</v>
+      <c r="H392" s="4">
+        <v>45090</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
@@ -10610,8 +10611,8 @@
       <c r="G393" s="1">
         <v>0</v>
       </c>
-      <c r="H393" s="2">
-        <v>45364</v>
+      <c r="H393" s="4">
+        <v>45091</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
@@ -10636,8 +10637,8 @@
       <c r="G394" s="1">
         <v>1</v>
       </c>
-      <c r="H394" s="2">
-        <v>45365</v>
+      <c r="H394" s="4">
+        <v>45092</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
@@ -10662,8 +10663,8 @@
       <c r="G395" s="1">
         <v>1</v>
       </c>
-      <c r="H395" s="2">
-        <v>45366</v>
+      <c r="H395" s="4">
+        <v>45093</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
@@ -10688,8 +10689,8 @@
       <c r="G396" s="1">
         <v>1</v>
       </c>
-      <c r="H396" s="2">
-        <v>45367</v>
+      <c r="H396" s="4">
+        <v>45094</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
@@ -10714,8 +10715,8 @@
       <c r="G397" s="1">
         <v>1</v>
       </c>
-      <c r="H397" s="2">
-        <v>45368</v>
+      <c r="H397" s="4">
+        <v>45095</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
@@ -10740,8 +10741,8 @@
       <c r="G398" s="1">
         <v>1</v>
       </c>
-      <c r="H398" s="2">
-        <v>45369</v>
+      <c r="H398" s="4">
+        <v>45096</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
@@ -10766,8 +10767,8 @@
       <c r="G399" s="1">
         <v>1</v>
       </c>
-      <c r="H399" s="2">
-        <v>45370</v>
+      <c r="H399" s="4">
+        <v>45097</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
@@ -10792,8 +10793,8 @@
       <c r="G400" s="1">
         <v>0</v>
       </c>
-      <c r="H400" s="2">
-        <v>45371</v>
+      <c r="H400" s="4">
+        <v>45098</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
@@ -10818,8 +10819,8 @@
       <c r="G401" s="1">
         <v>0</v>
       </c>
-      <c r="H401" s="2">
-        <v>45372</v>
+      <c r="H401" s="4">
+        <v>45099</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -10844,8 +10845,8 @@
       <c r="G402" s="1">
         <v>0</v>
       </c>
-      <c r="H402" s="2">
-        <v>45373</v>
+      <c r="H402" s="4">
+        <v>45100</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
@@ -10870,8 +10871,8 @@
       <c r="G403" s="1">
         <v>0</v>
       </c>
-      <c r="H403" s="2">
-        <v>45374</v>
+      <c r="H403" s="4">
+        <v>45101</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
@@ -10896,8 +10897,8 @@
       <c r="G404" s="1">
         <v>0</v>
       </c>
-      <c r="H404" s="2">
-        <v>45375</v>
+      <c r="H404" s="4">
+        <v>45102</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
@@ -10922,8 +10923,8 @@
       <c r="G405" s="1">
         <v>0</v>
       </c>
-      <c r="H405" s="2">
-        <v>45376</v>
+      <c r="H405" s="4">
+        <v>45103</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
@@ -10948,8 +10949,8 @@
       <c r="G406" s="1">
         <v>0</v>
       </c>
-      <c r="H406" s="2">
-        <v>45377</v>
+      <c r="H406" s="4">
+        <v>45104</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
@@ -10974,8 +10975,8 @@
       <c r="G407" s="1">
         <v>0</v>
       </c>
-      <c r="H407" s="2">
-        <v>45378</v>
+      <c r="H407" s="4">
+        <v>45105</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
@@ -11000,8 +11001,8 @@
       <c r="G408" s="1">
         <v>0</v>
       </c>
-      <c r="H408" s="2">
-        <v>45379</v>
+      <c r="H408" s="4">
+        <v>45106</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
@@ -11026,8 +11027,8 @@
       <c r="G409" s="1">
         <v>0</v>
       </c>
-      <c r="H409" s="2">
-        <v>45380</v>
+      <c r="H409" s="4">
+        <v>45107</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
@@ -11052,8 +11053,8 @@
       <c r="G410" s="1">
         <v>0</v>
       </c>
-      <c r="H410" s="2">
-        <v>45381</v>
+      <c r="H410" s="4">
+        <v>45108</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
@@ -11078,8 +11079,8 @@
       <c r="G411" s="1">
         <v>0</v>
       </c>
-      <c r="H411" s="2">
-        <v>45382</v>
+      <c r="H411" s="4">
+        <v>45109</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
@@ -11104,8 +11105,8 @@
       <c r="G412" s="1">
         <v>0</v>
       </c>
-      <c r="H412" s="2">
-        <v>45383</v>
+      <c r="H412" s="4">
+        <v>45110</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
@@ -11130,8 +11131,8 @@
       <c r="G413" s="1">
         <v>0</v>
       </c>
-      <c r="H413" s="2">
-        <v>45384</v>
+      <c r="H413" s="4">
+        <v>45111</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
@@ -11156,8 +11157,8 @@
       <c r="G414" s="1">
         <v>0</v>
       </c>
-      <c r="H414" s="2">
-        <v>45385</v>
+      <c r="H414" s="4">
+        <v>45112</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
@@ -11182,8 +11183,8 @@
       <c r="G415" s="1">
         <v>0</v>
       </c>
-      <c r="H415" s="2">
-        <v>45386</v>
+      <c r="H415" s="4">
+        <v>45113</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.3">
@@ -11208,8 +11209,8 @@
       <c r="G416" s="1">
         <v>0</v>
       </c>
-      <c r="H416" s="2">
-        <v>45387</v>
+      <c r="H416" s="4">
+        <v>45114</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.3">
@@ -11234,8 +11235,8 @@
       <c r="G417" s="1">
         <v>0</v>
       </c>
-      <c r="H417" s="2">
-        <v>45388</v>
+      <c r="H417" s="4">
+        <v>45115</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.3">
@@ -11260,8 +11261,8 @@
       <c r="G418" s="1">
         <v>0</v>
       </c>
-      <c r="H418" s="2">
-        <v>45389</v>
+      <c r="H418" s="4">
+        <v>45116</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.3">
@@ -11286,8 +11287,8 @@
       <c r="G419" s="1">
         <v>0</v>
       </c>
-      <c r="H419" s="2">
-        <v>45390</v>
+      <c r="H419" s="4">
+        <v>45117</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
@@ -11312,8 +11313,8 @@
       <c r="G420" s="1">
         <v>0</v>
       </c>
-      <c r="H420" s="2">
-        <v>45391</v>
+      <c r="H420" s="4">
+        <v>45118</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
@@ -11338,8 +11339,8 @@
       <c r="G421" s="1">
         <v>0</v>
       </c>
-      <c r="H421" s="2">
-        <v>45392</v>
+      <c r="H421" s="4">
+        <v>45119</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
@@ -11364,8 +11365,8 @@
       <c r="G422" s="1">
         <v>0</v>
       </c>
-      <c r="H422" s="2">
-        <v>45393</v>
+      <c r="H422" s="4">
+        <v>45120</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
@@ -11390,8 +11391,8 @@
       <c r="G423" s="1">
         <v>0</v>
       </c>
-      <c r="H423" s="2">
-        <v>45394</v>
+      <c r="H423" s="4">
+        <v>45121</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
@@ -11416,8 +11417,8 @@
       <c r="G424" s="1">
         <v>0</v>
       </c>
-      <c r="H424" s="2">
-        <v>45395</v>
+      <c r="H424" s="4">
+        <v>45122</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
@@ -11442,8 +11443,8 @@
       <c r="G425" s="1">
         <v>0</v>
       </c>
-      <c r="H425" s="2">
-        <v>45396</v>
+      <c r="H425" s="4">
+        <v>45123</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
@@ -11468,8 +11469,8 @@
       <c r="G426" s="1">
         <v>0</v>
       </c>
-      <c r="H426" s="2">
-        <v>45397</v>
+      <c r="H426" s="4">
+        <v>45124</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
@@ -11494,8 +11495,8 @@
       <c r="G427" s="1">
         <v>0</v>
       </c>
-      <c r="H427" s="2">
-        <v>45398</v>
+      <c r="H427" s="4">
+        <v>45125</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
@@ -11520,8 +11521,8 @@
       <c r="G428" s="1">
         <v>1</v>
       </c>
-      <c r="H428" s="2">
-        <v>45399</v>
+      <c r="H428" s="4">
+        <v>45126</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
@@ -11546,8 +11547,8 @@
       <c r="G429" s="1">
         <v>1</v>
       </c>
-      <c r="H429" s="2">
-        <v>45400</v>
+      <c r="H429" s="4">
+        <v>45127</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.3">
@@ -11572,8 +11573,8 @@
       <c r="G430" s="1">
         <v>1</v>
       </c>
-      <c r="H430" s="2">
-        <v>45401</v>
+      <c r="H430" s="4">
+        <v>45128</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
@@ -11598,8 +11599,8 @@
       <c r="G431" s="1">
         <v>1</v>
       </c>
-      <c r="H431" s="2">
-        <v>45402</v>
+      <c r="H431" s="4">
+        <v>45129</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
@@ -11624,8 +11625,8 @@
       <c r="G432" s="1">
         <v>1</v>
       </c>
-      <c r="H432" s="2">
-        <v>45403</v>
+      <c r="H432" s="4">
+        <v>45130</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.3">
@@ -11650,8 +11651,8 @@
       <c r="G433" s="1">
         <v>1</v>
       </c>
-      <c r="H433" s="2">
-        <v>45404</v>
+      <c r="H433" s="4">
+        <v>45131</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
@@ -11676,8 +11677,8 @@
       <c r="G434" s="1">
         <v>0</v>
       </c>
-      <c r="H434" s="2">
-        <v>45405</v>
+      <c r="H434" s="4">
+        <v>45132</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.3">
@@ -11702,8 +11703,8 @@
       <c r="G435" s="1">
         <v>0</v>
       </c>
-      <c r="H435" s="2">
-        <v>45406</v>
+      <c r="H435" s="4">
+        <v>45133</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
@@ -11728,8 +11729,8 @@
       <c r="G436" s="1">
         <v>0</v>
       </c>
-      <c r="H436" s="2">
-        <v>45407</v>
+      <c r="H436" s="4">
+        <v>45134</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
@@ -11754,8 +11755,8 @@
       <c r="G437" s="1">
         <v>0</v>
       </c>
-      <c r="H437" s="2">
-        <v>45408</v>
+      <c r="H437" s="4">
+        <v>45135</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
@@ -11780,8 +11781,8 @@
       <c r="G438" s="1">
         <v>0</v>
       </c>
-      <c r="H438" s="2">
-        <v>45409</v>
+      <c r="H438" s="4">
+        <v>45136</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
@@ -11806,8 +11807,8 @@
       <c r="G439" s="1">
         <v>0</v>
       </c>
-      <c r="H439" s="2">
-        <v>45410</v>
+      <c r="H439" s="4">
+        <v>45137</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
@@ -11832,8 +11833,8 @@
       <c r="G440" s="1">
         <v>0</v>
       </c>
-      <c r="H440" s="2">
-        <v>45411</v>
+      <c r="H440" s="4">
+        <v>45138</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
@@ -11858,8 +11859,8 @@
       <c r="G441" s="1">
         <v>0</v>
       </c>
-      <c r="H441" s="2">
-        <v>45412</v>
+      <c r="H441" s="4">
+        <v>45139</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
@@ -11884,8 +11885,8 @@
       <c r="G442" s="1">
         <v>0</v>
       </c>
-      <c r="H442" s="2">
-        <v>45413</v>
+      <c r="H442" s="4">
+        <v>45140</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.3">
@@ -11910,8 +11911,8 @@
       <c r="G443" s="1">
         <v>0</v>
       </c>
-      <c r="H443" s="2">
-        <v>45414</v>
+      <c r="H443" s="4">
+        <v>45141</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.3">
@@ -11936,8 +11937,8 @@
       <c r="G444" s="1">
         <v>0</v>
       </c>
-      <c r="H444" s="2">
-        <v>45415</v>
+      <c r="H444" s="4">
+        <v>45142</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.3">
@@ -11962,8 +11963,8 @@
       <c r="G445" s="1">
         <v>0</v>
       </c>
-      <c r="H445" s="2">
-        <v>45416</v>
+      <c r="H445" s="4">
+        <v>45143</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.3">
@@ -11988,8 +11989,8 @@
       <c r="G446" s="1">
         <v>0</v>
       </c>
-      <c r="H446" s="2">
-        <v>45417</v>
+      <c r="H446" s="4">
+        <v>45144</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.3">
@@ -12014,8 +12015,8 @@
       <c r="G447" s="1">
         <v>0</v>
       </c>
-      <c r="H447" s="2">
-        <v>45418</v>
+      <c r="H447" s="4">
+        <v>45145</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.3">
@@ -12040,8 +12041,8 @@
       <c r="G448" s="1">
         <v>0</v>
       </c>
-      <c r="H448" s="2">
-        <v>45419</v>
+      <c r="H448" s="4">
+        <v>45146</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
@@ -12066,8 +12067,8 @@
       <c r="G449" s="1">
         <v>0</v>
       </c>
-      <c r="H449" s="2">
-        <v>45420</v>
+      <c r="H449" s="4">
+        <v>45147</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
@@ -12092,8 +12093,8 @@
       <c r="G450" s="1">
         <v>0</v>
       </c>
-      <c r="H450" s="2">
-        <v>45421</v>
+      <c r="H450" s="4">
+        <v>45148</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.3">
@@ -12118,8 +12119,8 @@
       <c r="G451" s="1">
         <v>0</v>
       </c>
-      <c r="H451" s="2">
-        <v>45422</v>
+      <c r="H451" s="4">
+        <v>45149</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.3">
@@ -12144,8 +12145,8 @@
       <c r="G452" s="1">
         <v>0</v>
       </c>
-      <c r="H452" s="2">
-        <v>45423</v>
+      <c r="H452" s="4">
+        <v>45150</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.3">
@@ -12170,8 +12171,8 @@
       <c r="G453" s="1">
         <v>0</v>
       </c>
-      <c r="H453" s="2">
-        <v>45424</v>
+      <c r="H453" s="4">
+        <v>45151</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.3">
@@ -12196,8 +12197,8 @@
       <c r="G454" s="1">
         <v>0</v>
       </c>
-      <c r="H454" s="2">
-        <v>45425</v>
+      <c r="H454" s="4">
+        <v>45152</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
@@ -12222,8 +12223,8 @@
       <c r="G455" s="1">
         <v>0</v>
       </c>
-      <c r="H455" s="2">
-        <v>45426</v>
+      <c r="H455" s="4">
+        <v>45153</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
@@ -12248,8 +12249,8 @@
       <c r="G456" s="1">
         <v>0</v>
       </c>
-      <c r="H456" s="2">
-        <v>45427</v>
+      <c r="H456" s="4">
+        <v>45154</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.3">
@@ -12274,8 +12275,8 @@
       <c r="G457" s="1">
         <v>0</v>
       </c>
-      <c r="H457" s="2">
-        <v>45428</v>
+      <c r="H457" s="4">
+        <v>45155</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.3">
@@ -12300,8 +12301,8 @@
       <c r="G458" s="1">
         <v>0</v>
       </c>
-      <c r="H458" s="2">
-        <v>45429</v>
+      <c r="H458" s="4">
+        <v>45156</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.3">
@@ -12326,8 +12327,8 @@
       <c r="G459" s="1">
         <v>0</v>
       </c>
-      <c r="H459" s="2">
-        <v>45430</v>
+      <c r="H459" s="4">
+        <v>45157</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
@@ -12352,8 +12353,8 @@
       <c r="G460" s="1">
         <v>0</v>
       </c>
-      <c r="H460" s="2">
-        <v>45431</v>
+      <c r="H460" s="4">
+        <v>45158</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.3">
@@ -12378,8 +12379,8 @@
       <c r="G461" s="1">
         <v>0</v>
       </c>
-      <c r="H461" s="2">
-        <v>45432</v>
+      <c r="H461" s="4">
+        <v>45159</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
@@ -12404,8 +12405,8 @@
       <c r="G462" s="1">
         <v>1</v>
       </c>
-      <c r="H462" s="2">
-        <v>45433</v>
+      <c r="H462" s="4">
+        <v>45160</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
@@ -12430,8 +12431,8 @@
       <c r="G463" s="1">
         <v>1</v>
       </c>
-      <c r="H463" s="2">
-        <v>45434</v>
+      <c r="H463" s="4">
+        <v>45161</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
@@ -12456,8 +12457,8 @@
       <c r="G464" s="1">
         <v>1</v>
       </c>
-      <c r="H464" s="2">
-        <v>45435</v>
+      <c r="H464" s="4">
+        <v>45162</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.3">
@@ -12482,8 +12483,8 @@
       <c r="G465" s="1">
         <v>1</v>
       </c>
-      <c r="H465" s="2">
-        <v>45436</v>
+      <c r="H465" s="4">
+        <v>45163</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.3">
@@ -12508,8 +12509,8 @@
       <c r="G466" s="1">
         <v>1</v>
       </c>
-      <c r="H466" s="2">
-        <v>45437</v>
+      <c r="H466" s="4">
+        <v>45164</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.3">
@@ -12534,8 +12535,8 @@
       <c r="G467" s="1">
         <v>1</v>
       </c>
-      <c r="H467" s="2">
-        <v>45438</v>
+      <c r="H467" s="4">
+        <v>45165</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.3">
@@ -12560,8 +12561,8 @@
       <c r="G468" s="1">
         <v>0</v>
       </c>
-      <c r="H468" s="2">
-        <v>45439</v>
+      <c r="H468" s="4">
+        <v>45166</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.3">
@@ -12586,8 +12587,8 @@
       <c r="G469" s="1">
         <v>0</v>
       </c>
-      <c r="H469" s="2">
-        <v>45440</v>
+      <c r="H469" s="4">
+        <v>45167</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.3">
@@ -12612,8 +12613,8 @@
       <c r="G470" s="1">
         <v>0</v>
       </c>
-      <c r="H470" s="2">
-        <v>45441</v>
+      <c r="H470" s="4">
+        <v>45168</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.3">
@@ -12638,8 +12639,8 @@
       <c r="G471" s="1">
         <v>0</v>
       </c>
-      <c r="H471" s="2">
-        <v>45442</v>
+      <c r="H471" s="4">
+        <v>45169</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.3">
@@ -12664,8 +12665,8 @@
       <c r="G472" s="1">
         <v>0</v>
       </c>
-      <c r="H472" s="2">
-        <v>45443</v>
+      <c r="H472" s="4">
+        <v>45170</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.3">
@@ -12690,8 +12691,8 @@
       <c r="G473" s="1">
         <v>0</v>
       </c>
-      <c r="H473" s="2">
-        <v>45444</v>
+      <c r="H473" s="4">
+        <v>45171</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.3">
@@ -12716,8 +12717,8 @@
       <c r="G474" s="1">
         <v>0</v>
       </c>
-      <c r="H474" s="2">
-        <v>45445</v>
+      <c r="H474" s="4">
+        <v>45172</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.3">
@@ -12742,8 +12743,8 @@
       <c r="G475" s="1">
         <v>0</v>
       </c>
-      <c r="H475" s="2">
-        <v>45446</v>
+      <c r="H475" s="4">
+        <v>45173</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.3">
@@ -12768,8 +12769,8 @@
       <c r="G476" s="1">
         <v>0</v>
       </c>
-      <c r="H476" s="2">
-        <v>45447</v>
+      <c r="H476" s="4">
+        <v>45174</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.3">
@@ -12794,8 +12795,8 @@
       <c r="G477" s="1">
         <v>0</v>
       </c>
-      <c r="H477" s="2">
-        <v>45448</v>
+      <c r="H477" s="4">
+        <v>45175</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.3">
@@ -12820,8 +12821,8 @@
       <c r="G478" s="1">
         <v>0</v>
       </c>
-      <c r="H478" s="2">
-        <v>45449</v>
+      <c r="H478" s="4">
+        <v>45176</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.3">
@@ -12846,8 +12847,8 @@
       <c r="G479" s="1">
         <v>0</v>
       </c>
-      <c r="H479" s="2">
-        <v>45450</v>
+      <c r="H479" s="4">
+        <v>45177</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.3">
@@ -12872,8 +12873,8 @@
       <c r="G480" s="1">
         <v>0</v>
       </c>
-      <c r="H480" s="2">
-        <v>45451</v>
+      <c r="H480" s="4">
+        <v>45178</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.3">
@@ -12898,8 +12899,8 @@
       <c r="G481" s="1">
         <v>0</v>
       </c>
-      <c r="H481" s="2">
-        <v>45452</v>
+      <c r="H481" s="4">
+        <v>45179</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.3">
@@ -12924,8 +12925,8 @@
       <c r="G482" s="1">
         <v>0</v>
       </c>
-      <c r="H482" s="2">
-        <v>45453</v>
+      <c r="H482" s="4">
+        <v>45180</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.3">
@@ -12950,8 +12951,8 @@
       <c r="G483" s="1">
         <v>0</v>
       </c>
-      <c r="H483" s="2">
-        <v>45454</v>
+      <c r="H483" s="4">
+        <v>45181</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.3">
@@ -12976,8 +12977,8 @@
       <c r="G484" s="1">
         <v>0</v>
       </c>
-      <c r="H484" s="2">
-        <v>45455</v>
+      <c r="H484" s="4">
+        <v>45182</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.3">
@@ -13002,8 +13003,8 @@
       <c r="G485" s="1">
         <v>0</v>
       </c>
-      <c r="H485" s="2">
-        <v>45456</v>
+      <c r="H485" s="4">
+        <v>45183</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.3">
@@ -13028,8 +13029,8 @@
       <c r="G486" s="1">
         <v>0</v>
       </c>
-      <c r="H486" s="2">
-        <v>45457</v>
+      <c r="H486" s="4">
+        <v>45184</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.3">
@@ -13054,8 +13055,8 @@
       <c r="G487" s="1">
         <v>0</v>
       </c>
-      <c r="H487" s="2">
-        <v>45458</v>
+      <c r="H487" s="4">
+        <v>45185</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.3">
@@ -13080,8 +13081,8 @@
       <c r="G488" s="1">
         <v>0</v>
       </c>
-      <c r="H488" s="2">
-        <v>45459</v>
+      <c r="H488" s="4">
+        <v>45186</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.3">
@@ -13106,8 +13107,8 @@
       <c r="G489" s="1">
         <v>0</v>
       </c>
-      <c r="H489" s="2">
-        <v>45460</v>
+      <c r="H489" s="4">
+        <v>45187</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.3">
@@ -13132,8 +13133,8 @@
       <c r="G490" s="1">
         <v>0</v>
       </c>
-      <c r="H490" s="2">
-        <v>45461</v>
+      <c r="H490" s="4">
+        <v>45188</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.3">
@@ -13158,8 +13159,8 @@
       <c r="G491" s="1">
         <v>0</v>
       </c>
-      <c r="H491" s="2">
-        <v>45462</v>
+      <c r="H491" s="4">
+        <v>45189</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.3">
@@ -13184,8 +13185,8 @@
       <c r="G492" s="1">
         <v>0</v>
       </c>
-      <c r="H492" s="2">
-        <v>45463</v>
+      <c r="H492" s="4">
+        <v>45190</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.3">
@@ -13210,8 +13211,8 @@
       <c r="G493" s="1">
         <v>0</v>
       </c>
-      <c r="H493" s="2">
-        <v>45464</v>
+      <c r="H493" s="4">
+        <v>45191</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.3">
@@ -13236,8 +13237,8 @@
       <c r="G494" s="1">
         <v>0</v>
       </c>
-      <c r="H494" s="2">
-        <v>45465</v>
+      <c r="H494" s="4">
+        <v>45192</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.3">
@@ -13262,8 +13263,8 @@
       <c r="G495" s="1">
         <v>0</v>
       </c>
-      <c r="H495" s="2">
-        <v>45466</v>
+      <c r="H495" s="4">
+        <v>45193</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.3">
@@ -13288,8 +13289,8 @@
       <c r="G496" s="1">
         <v>0</v>
       </c>
-      <c r="H496" s="2">
-        <v>45467</v>
+      <c r="H496" s="4">
+        <v>45194</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.3">
@@ -13314,8 +13315,8 @@
       <c r="G497" s="1">
         <v>0</v>
       </c>
-      <c r="H497" s="2">
-        <v>45468</v>
+      <c r="H497" s="4">
+        <v>45195</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.3">
@@ -13340,8 +13341,8 @@
       <c r="G498" s="1">
         <v>0</v>
       </c>
-      <c r="H498" s="2">
-        <v>45469</v>
+      <c r="H498" s="4">
+        <v>45196</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.3">
@@ -13366,8 +13367,8 @@
       <c r="G499" s="1">
         <v>1</v>
       </c>
-      <c r="H499" s="2">
-        <v>45470</v>
+      <c r="H499" s="4">
+        <v>45197</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.3">
@@ -13392,8 +13393,8 @@
       <c r="G500" s="1">
         <v>1</v>
       </c>
-      <c r="H500" s="2">
-        <v>45471</v>
+      <c r="H500" s="4">
+        <v>45198</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.3">
@@ -13418,8 +13419,8 @@
       <c r="G501" s="1">
         <v>1</v>
       </c>
-      <c r="H501" s="2">
-        <v>45472</v>
+      <c r="H501" s="4">
+        <v>45199</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.3">
@@ -13444,8 +13445,8 @@
       <c r="G502" s="1">
         <v>1</v>
       </c>
-      <c r="H502" s="2">
-        <v>45473</v>
+      <c r="H502" s="4">
+        <v>45200</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.3">
@@ -13470,8 +13471,8 @@
       <c r="G503" s="1">
         <v>1</v>
       </c>
-      <c r="H503" s="2">
-        <v>45474</v>
+      <c r="H503" s="4">
+        <v>45201</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.3">
@@ -13496,8 +13497,8 @@
       <c r="G504" s="1">
         <v>1</v>
       </c>
-      <c r="H504" s="2">
-        <v>45475</v>
+      <c r="H504" s="4">
+        <v>45202</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.3">
@@ -13522,8 +13523,8 @@
       <c r="G505" s="1">
         <v>0</v>
       </c>
-      <c r="H505" s="2">
-        <v>45476</v>
+      <c r="H505" s="4">
+        <v>45203</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.3">
@@ -13548,8 +13549,8 @@
       <c r="G506" s="1">
         <v>0</v>
       </c>
-      <c r="H506" s="2">
-        <v>45477</v>
+      <c r="H506" s="4">
+        <v>45204</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.3">
@@ -13574,8 +13575,8 @@
       <c r="G507" s="1">
         <v>0</v>
       </c>
-      <c r="H507" s="2">
-        <v>45478</v>
+      <c r="H507" s="4">
+        <v>45205</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.3">
@@ -13600,8 +13601,8 @@
       <c r="G508" s="1">
         <v>0</v>
       </c>
-      <c r="H508" s="2">
-        <v>45479</v>
+      <c r="H508" s="4">
+        <v>45206</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.3">
@@ -13626,8 +13627,8 @@
       <c r="G509" s="1">
         <v>0</v>
       </c>
-      <c r="H509" s="2">
-        <v>45480</v>
+      <c r="H509" s="4">
+        <v>45207</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.3">
@@ -13652,8 +13653,8 @@
       <c r="G510" s="1">
         <v>0</v>
       </c>
-      <c r="H510" s="2">
-        <v>45481</v>
+      <c r="H510" s="4">
+        <v>45208</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.3">
@@ -13678,8 +13679,8 @@
       <c r="G511" s="1">
         <v>0</v>
       </c>
-      <c r="H511" s="2">
-        <v>45482</v>
+      <c r="H511" s="4">
+        <v>45209</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.3">
@@ -13704,8 +13705,8 @@
       <c r="G512" s="1">
         <v>0</v>
       </c>
-      <c r="H512" s="2">
-        <v>45483</v>
+      <c r="H512" s="4">
+        <v>45210</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.3">
@@ -13730,8 +13731,8 @@
       <c r="G513" s="1">
         <v>0</v>
       </c>
-      <c r="H513" s="2">
-        <v>45484</v>
+      <c r="H513" s="4">
+        <v>45211</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.3">
@@ -13756,8 +13757,8 @@
       <c r="G514" s="1">
         <v>0</v>
       </c>
-      <c r="H514" s="2">
-        <v>45485</v>
+      <c r="H514" s="4">
+        <v>45212</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.3">
@@ -13782,8 +13783,8 @@
       <c r="G515" s="1">
         <v>0</v>
       </c>
-      <c r="H515" s="2">
-        <v>45486</v>
+      <c r="H515" s="4">
+        <v>45213</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.3">
@@ -13808,8 +13809,8 @@
       <c r="G516" s="1">
         <v>0</v>
       </c>
-      <c r="H516" s="2">
-        <v>45487</v>
+      <c r="H516" s="4">
+        <v>45214</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.3">
@@ -13834,8 +13835,8 @@
       <c r="G517" s="1">
         <v>0</v>
       </c>
-      <c r="H517" s="2">
-        <v>45488</v>
+      <c r="H517" s="4">
+        <v>45215</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.3">
@@ -13860,8 +13861,8 @@
       <c r="G518" s="1">
         <v>0</v>
       </c>
-      <c r="H518" s="2">
-        <v>45489</v>
+      <c r="H518" s="4">
+        <v>45216</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.3">
@@ -13886,8 +13887,8 @@
       <c r="G519" s="1">
         <v>0</v>
       </c>
-      <c r="H519" s="2">
-        <v>45490</v>
+      <c r="H519" s="4">
+        <v>45217</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.3">
@@ -13912,8 +13913,8 @@
       <c r="G520" s="1">
         <v>0</v>
       </c>
-      <c r="H520" s="2">
-        <v>45491</v>
+      <c r="H520" s="4">
+        <v>45218</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.3">
@@ -13938,8 +13939,8 @@
       <c r="G521" s="1">
         <v>0</v>
       </c>
-      <c r="H521" s="2">
-        <v>45492</v>
+      <c r="H521" s="4">
+        <v>45219</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.3">
@@ -13964,8 +13965,8 @@
       <c r="G522" s="1">
         <v>0</v>
       </c>
-      <c r="H522" s="2">
-        <v>45493</v>
+      <c r="H522" s="4">
+        <v>45220</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.3">
@@ -13990,8 +13991,8 @@
       <c r="G523" s="1">
         <v>0</v>
       </c>
-      <c r="H523" s="2">
-        <v>45494</v>
+      <c r="H523" s="4">
+        <v>45221</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.3">
@@ -14016,8 +14017,8 @@
       <c r="G524" s="1">
         <v>0</v>
       </c>
-      <c r="H524" s="2">
-        <v>45495</v>
+      <c r="H524" s="4">
+        <v>45222</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.3">
@@ -14042,8 +14043,8 @@
       <c r="G525" s="1">
         <v>0</v>
       </c>
-      <c r="H525" s="2">
-        <v>45496</v>
+      <c r="H525" s="4">
+        <v>45223</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.3">
@@ -14068,8 +14069,8 @@
       <c r="G526" s="1">
         <v>0</v>
       </c>
-      <c r="H526" s="2">
-        <v>45497</v>
+      <c r="H526" s="4">
+        <v>45224</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.3">
@@ -14094,8 +14095,8 @@
       <c r="G527" s="1">
         <v>0</v>
       </c>
-      <c r="H527" s="2">
-        <v>45498</v>
+      <c r="H527" s="4">
+        <v>45225</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.3">
@@ -14120,8 +14121,8 @@
       <c r="G528" s="1">
         <v>0</v>
       </c>
-      <c r="H528" s="2">
-        <v>45499</v>
+      <c r="H528" s="4">
+        <v>45226</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.3">
@@ -14146,8 +14147,8 @@
       <c r="G529" s="1">
         <v>0</v>
       </c>
-      <c r="H529" s="2">
-        <v>45500</v>
+      <c r="H529" s="4">
+        <v>45227</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.3">
@@ -14172,8 +14173,8 @@
       <c r="G530" s="1">
         <v>0</v>
       </c>
-      <c r="H530" s="2">
-        <v>45501</v>
+      <c r="H530" s="4">
+        <v>45228</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.3">
@@ -14198,8 +14199,8 @@
       <c r="G531" s="1">
         <v>0</v>
       </c>
-      <c r="H531" s="2">
-        <v>45502</v>
+      <c r="H531" s="4">
+        <v>45229</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.3">
@@ -14224,8 +14225,8 @@
       <c r="G532" s="1">
         <v>0</v>
       </c>
-      <c r="H532" s="2">
-        <v>45503</v>
+      <c r="H532" s="4">
+        <v>45230</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.3">
@@ -14250,8 +14251,8 @@
       <c r="G533" s="1">
         <v>0</v>
       </c>
-      <c r="H533" s="2">
-        <v>45504</v>
+      <c r="H533" s="4">
+        <v>45231</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.3">
@@ -14276,8 +14277,8 @@
       <c r="G534" s="1">
         <v>0</v>
       </c>
-      <c r="H534" s="2">
-        <v>45505</v>
+      <c r="H534" s="4">
+        <v>45232</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.3">
@@ -14302,8 +14303,8 @@
       <c r="G535" s="1">
         <v>0</v>
       </c>
-      <c r="H535" s="2">
-        <v>45506</v>
+      <c r="H535" s="4">
+        <v>45233</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.3">
@@ -14328,8 +14329,8 @@
       <c r="G536" s="1">
         <v>0</v>
       </c>
-      <c r="H536" s="2">
-        <v>45507</v>
+      <c r="H536" s="4">
+        <v>45234</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.3">
@@ -14354,8 +14355,8 @@
       <c r="G537" s="1">
         <v>0</v>
       </c>
-      <c r="H537" s="2">
-        <v>45508</v>
+      <c r="H537" s="4">
+        <v>45235</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.3">
@@ -14380,8 +14381,8 @@
       <c r="G538" s="1">
         <v>0</v>
       </c>
-      <c r="H538" s="2">
-        <v>45509</v>
+      <c r="H538" s="4">
+        <v>45236</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.3">
@@ -14406,8 +14407,8 @@
       <c r="G539" s="1">
         <v>1</v>
       </c>
-      <c r="H539" s="2">
-        <v>45510</v>
+      <c r="H539" s="4">
+        <v>45237</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.3">
@@ -14432,8 +14433,8 @@
       <c r="G540" s="1">
         <v>1</v>
       </c>
-      <c r="H540" s="2">
-        <v>45511</v>
+      <c r="H540" s="4">
+        <v>45238</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.3">
@@ -14458,8 +14459,8 @@
       <c r="G541" s="1">
         <v>1</v>
       </c>
-      <c r="H541" s="2">
-        <v>45512</v>
+      <c r="H541" s="4">
+        <v>45239</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.3">
@@ -14484,8 +14485,8 @@
       <c r="G542" s="1">
         <v>1</v>
       </c>
-      <c r="H542" s="2">
-        <v>45513</v>
+      <c r="H542" s="4">
+        <v>45240</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.3">
@@ -14510,8 +14511,8 @@
       <c r="G543" s="1">
         <v>1</v>
       </c>
-      <c r="H543" s="2">
-        <v>45514</v>
+      <c r="H543" s="4">
+        <v>45241</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.3">
@@ -14536,8 +14537,8 @@
       <c r="G544" s="1">
         <v>1</v>
       </c>
-      <c r="H544" s="2">
-        <v>45515</v>
+      <c r="H544" s="4">
+        <v>45242</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.3">
@@ -14562,8 +14563,8 @@
       <c r="G545" s="1">
         <v>0</v>
       </c>
-      <c r="H545" s="2">
-        <v>45516</v>
+      <c r="H545" s="4">
+        <v>45243</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.3">
@@ -14588,8 +14589,8 @@
       <c r="G546" s="1">
         <v>0</v>
       </c>
-      <c r="H546" s="2">
-        <v>45517</v>
+      <c r="H546" s="4">
+        <v>45244</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.3">
@@ -14614,8 +14615,8 @@
       <c r="G547" s="1">
         <v>0</v>
       </c>
-      <c r="H547" s="2">
-        <v>45518</v>
+      <c r="H547" s="4">
+        <v>45245</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.3">
@@ -14640,8 +14641,8 @@
       <c r="G548" s="1">
         <v>0</v>
       </c>
-      <c r="H548" s="2">
-        <v>45519</v>
+      <c r="H548" s="4">
+        <v>45246</v>
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.3">
@@ -14666,8 +14667,8 @@
       <c r="G549" s="1">
         <v>0</v>
       </c>
-      <c r="H549" s="2">
-        <v>45520</v>
+      <c r="H549" s="4">
+        <v>45247</v>
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.3">
@@ -14692,8 +14693,8 @@
       <c r="G550" s="1">
         <v>0</v>
       </c>
-      <c r="H550" s="2">
-        <v>45521</v>
+      <c r="H550" s="4">
+        <v>45248</v>
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.3">
@@ -14718,8 +14719,8 @@
       <c r="G551" s="1">
         <v>0</v>
       </c>
-      <c r="H551" s="2">
-        <v>45522</v>
+      <c r="H551" s="4">
+        <v>45249</v>
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.3">
@@ -14744,8 +14745,8 @@
       <c r="G552" s="1">
         <v>0</v>
       </c>
-      <c r="H552" s="2">
-        <v>45523</v>
+      <c r="H552" s="4">
+        <v>45250</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.3">
@@ -14770,8 +14771,8 @@
       <c r="G553" s="1">
         <v>0</v>
       </c>
-      <c r="H553" s="2">
-        <v>45524</v>
+      <c r="H553" s="4">
+        <v>45251</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.3">
@@ -14796,8 +14797,8 @@
       <c r="G554" s="1">
         <v>0</v>
       </c>
-      <c r="H554" s="2">
-        <v>45525</v>
+      <c r="H554" s="4">
+        <v>45252</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.3">
@@ -14822,8 +14823,8 @@
       <c r="G555" s="1">
         <v>0</v>
       </c>
-      <c r="H555" s="2">
-        <v>45526</v>
+      <c r="H555" s="4">
+        <v>45253</v>
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.3">
@@ -14848,8 +14849,8 @@
       <c r="G556" s="1">
         <v>0</v>
       </c>
-      <c r="H556" s="2">
-        <v>45527</v>
+      <c r="H556" s="4">
+        <v>45254</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.3">
@@ -14874,8 +14875,8 @@
       <c r="G557" s="1">
         <v>0</v>
       </c>
-      <c r="H557" s="2">
-        <v>45528</v>
+      <c r="H557" s="4">
+        <v>45255</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.3">
@@ -14900,8 +14901,8 @@
       <c r="G558" s="1">
         <v>0</v>
       </c>
-      <c r="H558" s="2">
-        <v>45529</v>
+      <c r="H558" s="4">
+        <v>45256</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.3">
@@ -14926,8 +14927,8 @@
       <c r="G559" s="1">
         <v>0</v>
       </c>
-      <c r="H559" s="2">
-        <v>45530</v>
+      <c r="H559" s="4">
+        <v>45257</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.3">
@@ -14952,8 +14953,8 @@
       <c r="G560" s="1">
         <v>0</v>
       </c>
-      <c r="H560" s="2">
-        <v>45531</v>
+      <c r="H560" s="4">
+        <v>45258</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.3">
@@ -14978,8 +14979,8 @@
       <c r="G561" s="1">
         <v>0</v>
       </c>
-      <c r="H561" s="2">
-        <v>45532</v>
+      <c r="H561" s="4">
+        <v>45259</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.3">
@@ -15004,8 +15005,8 @@
       <c r="G562" s="1">
         <v>0</v>
       </c>
-      <c r="H562" s="2">
-        <v>45533</v>
+      <c r="H562" s="4">
+        <v>45260</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.3">
@@ -15030,8 +15031,8 @@
       <c r="G563" s="1">
         <v>0</v>
       </c>
-      <c r="H563" s="2">
-        <v>45534</v>
+      <c r="H563" s="4">
+        <v>45261</v>
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.3">
@@ -15056,8 +15057,8 @@
       <c r="G564" s="1">
         <v>0</v>
       </c>
-      <c r="H564" s="2">
-        <v>45535</v>
+      <c r="H564" s="4">
+        <v>45262</v>
       </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.3">
@@ -15082,8 +15083,8 @@
       <c r="G565" s="1">
         <v>0</v>
       </c>
-      <c r="H565" s="2">
-        <v>45536</v>
+      <c r="H565" s="4">
+        <v>45263</v>
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.3">
@@ -15108,8 +15109,8 @@
       <c r="G566" s="1">
         <v>0</v>
       </c>
-      <c r="H566" s="2">
-        <v>45537</v>
+      <c r="H566" s="4">
+        <v>45264</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.3">
@@ -15134,8 +15135,8 @@
       <c r="G567" s="1">
         <v>0</v>
       </c>
-      <c r="H567" s="2">
-        <v>45538</v>
+      <c r="H567" s="4">
+        <v>45265</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.3">
@@ -15160,8 +15161,8 @@
       <c r="G568" s="1">
         <v>0</v>
       </c>
-      <c r="H568" s="2">
-        <v>45539</v>
+      <c r="H568" s="4">
+        <v>45266</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.3">
@@ -15186,8 +15187,8 @@
       <c r="G569" s="1">
         <v>0</v>
       </c>
-      <c r="H569" s="2">
-        <v>45540</v>
+      <c r="H569" s="4">
+        <v>45267</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.3">
@@ -15212,8 +15213,8 @@
       <c r="G570" s="1">
         <v>0</v>
       </c>
-      <c r="H570" s="2">
-        <v>45541</v>
+      <c r="H570" s="4">
+        <v>45268</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.3">
@@ -15224,13 +15225,13 @@
         <v>1</v>
       </c>
       <c r="C571" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D571" s="1">
         <v>1</v>
       </c>
       <c r="E571" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F571" s="1">
         <v>2</v>
@@ -15238,8 +15239,8 @@
       <c r="G571" s="1">
         <v>0</v>
       </c>
-      <c r="H571" s="2">
-        <v>45542</v>
+      <c r="H571" s="4">
+        <v>45269</v>
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.3">
@@ -15250,22 +15251,22 @@
         <v>1</v>
       </c>
       <c r="C572" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D572" s="1">
         <v>1</v>
       </c>
       <c r="E572" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F572" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G572" s="1">
         <v>0</v>
       </c>
-      <c r="H572" s="2">
-        <v>45543</v>
+      <c r="H572" s="4">
+        <v>45270</v>
       </c>
     </row>
   </sheetData>
